--- a/curation/draft/collection/collection_specialization_SU.xlsx
+++ b/curation/draft/collection/collection_specialization_SU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF07A1BB-2616-40E5-835D-B24A7CDF2417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EF0B55-37B5-4B30-AC02-50D688B11822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,9 +475,6 @@
     <t>WINE</t>
   </si>
   <si>
-    <t>NEW_2</t>
-  </si>
-  <si>
     <t>CDASHIG</t>
   </si>
   <si>
@@ -656,13 +653,16 @@
   </si>
   <si>
     <t>SU_360</t>
+  </si>
+  <si>
+    <t>C219639</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,20 +675,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -738,12 +724,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -752,7 +737,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1069,9 +1053,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H173" sqref="H173"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O171" sqref="O171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,11 +1063,11 @@
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="25.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="3" customWidth="1"/>
     <col min="12" max="12" width="23.42578125" customWidth="1"/>
     <col min="14" max="14" width="15.140625" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" style="3" customWidth="1"/>
     <col min="24" max="24" width="25.42578125" customWidth="1"/>
     <col min="25" max="25" width="26.42578125" customWidth="1"/>
     <col min="26" max="26" width="28" customWidth="1"/>
@@ -1123,7 +1107,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1135,10 +1119,10 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -1194,14 +1178,14 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="45" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>150</v>
+      <c r="B2" t="s">
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -1209,8 +1193,8 @@
       <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>156</v>
+      <c r="K2" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="L2" t="s">
         <v>34</v>
@@ -1218,10 +1202,10 @@
       <c r="M2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="N2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q2">
@@ -1256,14 +1240,14 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>150</v>
+      <c r="B3" t="s">
+        <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -1271,20 +1255,20 @@
       <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>156</v>
+      <c r="K3" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="L3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1299,10 +1283,10 @@
         <v>10</v>
       </c>
       <c r="AD3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AE3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="30" x14ac:dyDescent="0.25">
@@ -1313,10 +1297,10 @@
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -1324,7 +1308,7 @@
       <c r="H4" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L4" t="s">
@@ -1336,7 +1320,7 @@
       <c r="N4" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q4">
@@ -1361,7 +1345,7 @@
         <v>46</v>
       </c>
       <c r="AE4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="30" x14ac:dyDescent="0.25">
@@ -1372,10 +1356,10 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -1383,7 +1367,7 @@
       <c r="H5" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L5" t="s">
@@ -1395,7 +1379,7 @@
       <c r="N5" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Q5">
@@ -1434,10 +1418,10 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -1445,7 +1429,7 @@
       <c r="H6" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L6" t="s">
@@ -1457,7 +1441,7 @@
       <c r="N6" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q6">
@@ -1479,7 +1463,7 @@
         <v>57</v>
       </c>
       <c r="AE6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="30" x14ac:dyDescent="0.25">
@@ -1490,10 +1474,10 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -1501,7 +1485,7 @@
       <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L7" t="s">
@@ -1513,7 +1497,7 @@
       <c r="N7" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q7">
@@ -1541,7 +1525,7 @@
         <v>50</v>
       </c>
       <c r="AC7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD7" t="s">
         <v>61</v>
@@ -1558,10 +1542,10 @@
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -1569,7 +1553,7 @@
       <c r="H8" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L8" t="s">
@@ -1581,7 +1565,7 @@
       <c r="N8" t="s">
         <v>65</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q8">
@@ -1626,10 +1610,10 @@
         <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -1637,7 +1621,7 @@
       <c r="H9" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L9" t="s">
@@ -1646,7 +1630,7 @@
       <c r="M9" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Q9">
@@ -1676,10 +1660,10 @@
         <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -1687,7 +1671,7 @@
       <c r="H10" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L10" t="s">
@@ -1699,7 +1683,7 @@
       <c r="N10" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q10">
@@ -1744,10 +1728,10 @@
         <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -1755,7 +1739,7 @@
       <c r="H11" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L11" t="s">
@@ -1767,7 +1751,7 @@
       <c r="N11" t="s">
         <v>78</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="3" t="s">
         <v>79</v>
       </c>
       <c r="Q11">
@@ -1812,10 +1796,10 @@
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -1823,7 +1807,7 @@
       <c r="H12" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L12" t="s">
@@ -1832,7 +1816,7 @@
       <c r="M12" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="3" t="s">
         <v>85</v>
       </c>
       <c r="Q12">
@@ -1862,10 +1846,10 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
@@ -1873,7 +1857,7 @@
       <c r="H13" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L13" t="s">
@@ -1885,7 +1869,7 @@
       <c r="N13" t="s">
         <v>88</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="3" t="s">
         <v>89</v>
       </c>
       <c r="Q13">
@@ -1915,10 +1899,10 @@
         <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
@@ -1926,7 +1910,7 @@
       <c r="H14" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L14" t="s">
@@ -1935,7 +1919,7 @@
       <c r="M14" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q14">
@@ -1980,10 +1964,10 @@
         <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G15" t="s">
         <v>33</v>
@@ -1991,7 +1975,7 @@
       <c r="H15" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L15" t="s">
@@ -2003,7 +1987,7 @@
       <c r="N15" t="s">
         <v>95</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="3" t="s">
         <v>96</v>
       </c>
       <c r="Q15">
@@ -2033,10 +2017,10 @@
         <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -2044,7 +2028,7 @@
       <c r="H16" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L16" t="s">
@@ -2056,7 +2040,7 @@
       <c r="N16" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="3" t="s">
         <v>98</v>
       </c>
       <c r="Q16">
@@ -2086,10 +2070,10 @@
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
@@ -2097,7 +2081,7 @@
       <c r="H17" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L17" t="s">
@@ -2106,7 +2090,7 @@
       <c r="M17" t="s">
         <v>100</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="3" t="s">
         <v>101</v>
       </c>
       <c r="Q17">
@@ -2151,10 +2135,10 @@
         <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G18" t="s">
         <v>33</v>
@@ -2162,7 +2146,7 @@
       <c r="H18" t="s">
         <v>103</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>104</v>
       </c>
       <c r="L18" t="s">
@@ -2174,7 +2158,7 @@
       <c r="N18" t="s">
         <v>47</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q18">
@@ -2199,7 +2183,7 @@
         <v>46</v>
       </c>
       <c r="AE18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -2210,10 +2194,10 @@
         <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
@@ -2221,7 +2205,7 @@
       <c r="H19" t="s">
         <v>103</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>104</v>
       </c>
       <c r="L19" t="s">
@@ -2233,7 +2217,7 @@
       <c r="N19" t="s">
         <v>53</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="P19" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Q19">
@@ -2263,10 +2247,10 @@
         <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G20" t="s">
         <v>33</v>
@@ -2274,7 +2258,7 @@
       <c r="H20" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>104</v>
       </c>
       <c r="L20" t="s">
@@ -2286,7 +2270,7 @@
       <c r="N20" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q20">
@@ -2308,7 +2292,7 @@
         <v>57</v>
       </c>
       <c r="AE20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -2319,10 +2303,10 @@
         <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -2330,7 +2314,7 @@
       <c r="H21" t="s">
         <v>103</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="3" t="s">
         <v>104</v>
       </c>
       <c r="L21" t="s">
@@ -2342,7 +2326,7 @@
       <c r="N21" t="s">
         <v>62</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="P21" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q21">
@@ -2370,7 +2354,7 @@
         <v>50</v>
       </c>
       <c r="AC21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD21" t="s">
         <v>61</v>
@@ -2387,10 +2371,10 @@
         <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
@@ -2398,7 +2382,7 @@
       <c r="H22" t="s">
         <v>103</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="3" t="s">
         <v>104</v>
       </c>
       <c r="L22" t="s">
@@ -2410,7 +2394,7 @@
       <c r="N22" t="s">
         <v>65</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="P22" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q22">
@@ -2455,10 +2439,10 @@
         <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
@@ -2466,7 +2450,7 @@
       <c r="H23" t="s">
         <v>103</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="3" t="s">
         <v>104</v>
       </c>
       <c r="L23" t="s">
@@ -2475,7 +2459,7 @@
       <c r="M23" t="s">
         <v>67</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="P23" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Q23">
@@ -2505,10 +2489,10 @@
         <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -2516,7 +2500,7 @@
       <c r="H24" t="s">
         <v>103</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="3" t="s">
         <v>104</v>
       </c>
       <c r="L24" t="s">
@@ -2528,7 +2512,7 @@
       <c r="N24" t="s">
         <v>71</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="P24" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q24">
@@ -2573,10 +2557,10 @@
         <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G25" t="s">
         <v>33</v>
@@ -2584,7 +2568,7 @@
       <c r="H25" t="s">
         <v>103</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="3" t="s">
         <v>104</v>
       </c>
       <c r="L25" t="s">
@@ -2596,7 +2580,7 @@
       <c r="N25" t="s">
         <v>78</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="P25" s="3" t="s">
         <v>79</v>
       </c>
       <c r="Q25">
@@ -2641,10 +2625,10 @@
         <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -2652,7 +2636,7 @@
       <c r="H26" t="s">
         <v>103</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="3" t="s">
         <v>104</v>
       </c>
       <c r="L26" t="s">
@@ -2661,7 +2645,7 @@
       <c r="M26" t="s">
         <v>84</v>
       </c>
-      <c r="P26" s="4" t="s">
+      <c r="P26" s="3" t="s">
         <v>85</v>
       </c>
       <c r="Q26">
@@ -2691,10 +2675,10 @@
         <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
@@ -2702,7 +2686,7 @@
       <c r="H27" t="s">
         <v>103</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="3" t="s">
         <v>104</v>
       </c>
       <c r="L27" t="s">
@@ -2714,7 +2698,7 @@
       <c r="N27" t="s">
         <v>88</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="P27" s="3" t="s">
         <v>89</v>
       </c>
       <c r="Q27">
@@ -2744,10 +2728,10 @@
         <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -2755,7 +2739,7 @@
       <c r="H28" t="s">
         <v>103</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="3" t="s">
         <v>104</v>
       </c>
       <c r="L28" t="s">
@@ -2764,7 +2748,7 @@
       <c r="M28" t="s">
         <v>91</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="P28" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q28">
@@ -2809,10 +2793,10 @@
         <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -2820,7 +2804,7 @@
       <c r="H29" t="s">
         <v>103</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="3" t="s">
         <v>104</v>
       </c>
       <c r="L29" t="s">
@@ -2832,7 +2816,7 @@
       <c r="N29" t="s">
         <v>95</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="P29" s="3" t="s">
         <v>96</v>
       </c>
       <c r="Q29">
@@ -2862,10 +2846,10 @@
         <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -2873,7 +2857,7 @@
       <c r="H30" t="s">
         <v>103</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="3" t="s">
         <v>104</v>
       </c>
       <c r="L30" t="s">
@@ -2885,7 +2869,7 @@
       <c r="N30" t="s">
         <v>95</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="P30" s="3" t="s">
         <v>98</v>
       </c>
       <c r="Q30">
@@ -2915,10 +2899,10 @@
         <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G31" t="s">
         <v>33</v>
@@ -2926,7 +2910,7 @@
       <c r="H31" t="s">
         <v>103</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="3" t="s">
         <v>104</v>
       </c>
       <c r="L31" t="s">
@@ -2935,7 +2919,7 @@
       <c r="M31" t="s">
         <v>100</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="P31" s="3" t="s">
         <v>101</v>
       </c>
       <c r="Q31">
@@ -2980,10 +2964,10 @@
         <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G32" t="s">
         <v>33</v>
@@ -2991,7 +2975,7 @@
       <c r="H32" t="s">
         <v>107</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="3" t="s">
         <v>108</v>
       </c>
       <c r="L32" t="s">
@@ -3003,7 +2987,7 @@
       <c r="N32" t="s">
         <v>47</v>
       </c>
-      <c r="P32" s="4" t="s">
+      <c r="P32" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q32">
@@ -3028,7 +3012,7 @@
         <v>46</v>
       </c>
       <c r="AE32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -3039,10 +3023,10 @@
         <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3050,7 +3034,7 @@
       <c r="H33" t="s">
         <v>107</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="3" t="s">
         <v>108</v>
       </c>
       <c r="L33" t="s">
@@ -3062,7 +3046,7 @@
       <c r="N33" t="s">
         <v>53</v>
       </c>
-      <c r="P33" s="4" t="s">
+      <c r="P33" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Q33">
@@ -3101,10 +3085,10 @@
         <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
@@ -3112,7 +3096,7 @@
       <c r="H34" t="s">
         <v>107</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="3" t="s">
         <v>108</v>
       </c>
       <c r="L34" t="s">
@@ -3124,7 +3108,7 @@
       <c r="N34" t="s">
         <v>58</v>
       </c>
-      <c r="P34" s="4" t="s">
+      <c r="P34" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q34">
@@ -3146,7 +3130,7 @@
         <v>57</v>
       </c>
       <c r="AE34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -3157,10 +3141,10 @@
         <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G35" t="s">
         <v>33</v>
@@ -3168,7 +3152,7 @@
       <c r="H35" t="s">
         <v>107</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="3" t="s">
         <v>108</v>
       </c>
       <c r="L35" t="s">
@@ -3180,7 +3164,7 @@
       <c r="N35" t="s">
         <v>62</v>
       </c>
-      <c r="P35" s="4" t="s">
+      <c r="P35" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q35">
@@ -3208,7 +3192,7 @@
         <v>50</v>
       </c>
       <c r="AC35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD35" t="s">
         <v>61</v>
@@ -3225,10 +3209,10 @@
         <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
@@ -3236,7 +3220,7 @@
       <c r="H36" t="s">
         <v>107</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="3" t="s">
         <v>108</v>
       </c>
       <c r="L36" t="s">
@@ -3248,7 +3232,7 @@
       <c r="N36" t="s">
         <v>65</v>
       </c>
-      <c r="P36" s="4" t="s">
+      <c r="P36" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q36">
@@ -3293,10 +3277,10 @@
         <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G37" t="s">
         <v>33</v>
@@ -3304,7 +3288,7 @@
       <c r="H37" t="s">
         <v>107</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="3" t="s">
         <v>108</v>
       </c>
       <c r="L37" t="s">
@@ -3313,7 +3297,7 @@
       <c r="M37" t="s">
         <v>67</v>
       </c>
-      <c r="P37" s="4" t="s">
+      <c r="P37" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Q37">
@@ -3343,10 +3327,10 @@
         <v>107</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G38" t="s">
         <v>33</v>
@@ -3354,7 +3338,7 @@
       <c r="H38" t="s">
         <v>107</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="3" t="s">
         <v>108</v>
       </c>
       <c r="L38" t="s">
@@ -3366,7 +3350,7 @@
       <c r="N38" t="s">
         <v>71</v>
       </c>
-      <c r="P38" s="4" t="s">
+      <c r="P38" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q38">
@@ -3411,10 +3395,10 @@
         <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
@@ -3422,7 +3406,7 @@
       <c r="H39" t="s">
         <v>107</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="3" t="s">
         <v>108</v>
       </c>
       <c r="L39" t="s">
@@ -3434,7 +3418,7 @@
       <c r="N39" t="s">
         <v>78</v>
       </c>
-      <c r="P39" s="4" t="s">
+      <c r="P39" s="3" t="s">
         <v>79</v>
       </c>
       <c r="Q39">
@@ -3479,10 +3463,10 @@
         <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
@@ -3490,7 +3474,7 @@
       <c r="H40" t="s">
         <v>107</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="3" t="s">
         <v>108</v>
       </c>
       <c r="L40" t="s">
@@ -3499,7 +3483,7 @@
       <c r="M40" t="s">
         <v>84</v>
       </c>
-      <c r="P40" s="4" t="s">
+      <c r="P40" s="3" t="s">
         <v>85</v>
       </c>
       <c r="Q40">
@@ -3529,10 +3513,10 @@
         <v>107</v>
       </c>
       <c r="D41" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G41" t="s">
         <v>33</v>
@@ -3540,7 +3524,7 @@
       <c r="H41" t="s">
         <v>107</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K41" s="3" t="s">
         <v>108</v>
       </c>
       <c r="L41" t="s">
@@ -3552,7 +3536,7 @@
       <c r="N41" t="s">
         <v>88</v>
       </c>
-      <c r="P41" s="4" t="s">
+      <c r="P41" s="3" t="s">
         <v>89</v>
       </c>
       <c r="Q41">
@@ -3582,10 +3566,10 @@
         <v>107</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G42" t="s">
         <v>33</v>
@@ -3593,7 +3577,7 @@
       <c r="H42" t="s">
         <v>107</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="3" t="s">
         <v>108</v>
       </c>
       <c r="L42" t="s">
@@ -3602,7 +3586,7 @@
       <c r="M42" t="s">
         <v>91</v>
       </c>
-      <c r="P42" s="4" t="s">
+      <c r="P42" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q42">
@@ -3647,10 +3631,10 @@
         <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>151</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G43" t="s">
         <v>33</v>
@@ -3658,7 +3642,7 @@
       <c r="H43" t="s">
         <v>107</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="3" t="s">
         <v>108</v>
       </c>
       <c r="L43" t="s">
@@ -3670,7 +3654,7 @@
       <c r="N43" t="s">
         <v>95</v>
       </c>
-      <c r="P43" s="4" t="s">
+      <c r="P43" s="3" t="s">
         <v>96</v>
       </c>
       <c r="Q43">
@@ -3700,10 +3684,10 @@
         <v>107</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -3711,7 +3695,7 @@
       <c r="H44" t="s">
         <v>107</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="3" t="s">
         <v>108</v>
       </c>
       <c r="L44" t="s">
@@ -3723,7 +3707,7 @@
       <c r="N44" t="s">
         <v>95</v>
       </c>
-      <c r="P44" s="4" t="s">
+      <c r="P44" s="3" t="s">
         <v>98</v>
       </c>
       <c r="Q44">
@@ -3753,10 +3737,10 @@
         <v>107</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G45" t="s">
         <v>33</v>
@@ -3764,7 +3748,7 @@
       <c r="H45" t="s">
         <v>107</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K45" s="3" t="s">
         <v>108</v>
       </c>
       <c r="L45" t="s">
@@ -3773,7 +3757,7 @@
       <c r="M45" t="s">
         <v>100</v>
       </c>
-      <c r="P45" s="4" t="s">
+      <c r="P45" s="3" t="s">
         <v>101</v>
       </c>
       <c r="Q45">
@@ -3818,10 +3802,10 @@
         <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>151</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G46" t="s">
         <v>33</v>
@@ -3829,7 +3813,7 @@
       <c r="H46" t="s">
         <v>114</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="K46" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L46" t="s">
@@ -3841,7 +3825,7 @@
       <c r="N46" t="s">
         <v>47</v>
       </c>
-      <c r="P46" s="4" t="s">
+      <c r="P46" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q46">
@@ -3866,7 +3850,7 @@
         <v>46</v>
       </c>
       <c r="AE46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -3877,10 +3861,10 @@
         <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>151</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -3888,7 +3872,7 @@
       <c r="H47" t="s">
         <v>114</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K47" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L47" t="s">
@@ -3900,7 +3884,7 @@
       <c r="N47" t="s">
         <v>53</v>
       </c>
-      <c r="P47" s="4" t="s">
+      <c r="P47" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Q47">
@@ -3930,10 +3914,10 @@
         <v>114</v>
       </c>
       <c r="D48" t="s">
-        <v>151</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G48" t="s">
         <v>33</v>
@@ -3941,7 +3925,7 @@
       <c r="H48" t="s">
         <v>114</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="K48" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L48" t="s">
@@ -3953,7 +3937,7 @@
       <c r="N48" t="s">
         <v>58</v>
       </c>
-      <c r="P48" s="4" t="s">
+      <c r="P48" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q48">
@@ -3975,7 +3959,7 @@
         <v>57</v>
       </c>
       <c r="AE48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -3986,10 +3970,10 @@
         <v>114</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G49" t="s">
         <v>33</v>
@@ -3997,7 +3981,7 @@
       <c r="H49" t="s">
         <v>114</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="K49" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L49" t="s">
@@ -4009,7 +3993,7 @@
       <c r="N49" t="s">
         <v>62</v>
       </c>
-      <c r="P49" s="4" t="s">
+      <c r="P49" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q49">
@@ -4037,7 +4021,7 @@
         <v>50</v>
       </c>
       <c r="AC49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD49" t="s">
         <v>61</v>
@@ -4054,10 +4038,10 @@
         <v>114</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
@@ -4065,7 +4049,7 @@
       <c r="H50" t="s">
         <v>114</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K50" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L50" t="s">
@@ -4077,7 +4061,7 @@
       <c r="N50" t="s">
         <v>65</v>
       </c>
-      <c r="P50" s="4" t="s">
+      <c r="P50" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q50">
@@ -4122,10 +4106,10 @@
         <v>114</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G51" t="s">
         <v>33</v>
@@ -4133,7 +4117,7 @@
       <c r="H51" t="s">
         <v>114</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="K51" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L51" t="s">
@@ -4142,7 +4126,7 @@
       <c r="M51" t="s">
         <v>67</v>
       </c>
-      <c r="P51" s="4" t="s">
+      <c r="P51" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Q51">
@@ -4172,10 +4156,10 @@
         <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>151</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G52" t="s">
         <v>33</v>
@@ -4183,7 +4167,7 @@
       <c r="H52" t="s">
         <v>114</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="K52" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L52" t="s">
@@ -4195,7 +4179,7 @@
       <c r="N52" t="s">
         <v>71</v>
       </c>
-      <c r="P52" s="4" t="s">
+      <c r="P52" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q52">
@@ -4240,10 +4224,10 @@
         <v>114</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G53" t="s">
         <v>33</v>
@@ -4251,7 +4235,7 @@
       <c r="H53" t="s">
         <v>114</v>
       </c>
-      <c r="K53" s="4" t="s">
+      <c r="K53" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L53" t="s">
@@ -4263,7 +4247,7 @@
       <c r="N53" t="s">
         <v>78</v>
       </c>
-      <c r="P53" s="4" t="s">
+      <c r="P53" s="3" t="s">
         <v>79</v>
       </c>
       <c r="Q53">
@@ -4308,10 +4292,10 @@
         <v>114</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G54" t="s">
         <v>33</v>
@@ -4319,7 +4303,7 @@
       <c r="H54" t="s">
         <v>114</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="K54" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L54" t="s">
@@ -4328,7 +4312,7 @@
       <c r="M54" t="s">
         <v>84</v>
       </c>
-      <c r="P54" s="4" t="s">
+      <c r="P54" s="3" t="s">
         <v>85</v>
       </c>
       <c r="Q54">
@@ -4358,10 +4342,10 @@
         <v>114</v>
       </c>
       <c r="D55" t="s">
-        <v>151</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G55" t="s">
         <v>33</v>
@@ -4369,7 +4353,7 @@
       <c r="H55" t="s">
         <v>114</v>
       </c>
-      <c r="K55" s="4" t="s">
+      <c r="K55" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L55" t="s">
@@ -4381,7 +4365,7 @@
       <c r="N55" t="s">
         <v>88</v>
       </c>
-      <c r="P55" s="4" t="s">
+      <c r="P55" s="3" t="s">
         <v>89</v>
       </c>
       <c r="Q55">
@@ -4411,10 +4395,10 @@
         <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -4422,7 +4406,7 @@
       <c r="H56" t="s">
         <v>114</v>
       </c>
-      <c r="K56" s="4" t="s">
+      <c r="K56" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L56" t="s">
@@ -4431,7 +4415,7 @@
       <c r="M56" t="s">
         <v>91</v>
       </c>
-      <c r="P56" s="4" t="s">
+      <c r="P56" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q56">
@@ -4476,10 +4460,10 @@
         <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G57" t="s">
         <v>33</v>
@@ -4487,7 +4471,7 @@
       <c r="H57" t="s">
         <v>114</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="K57" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L57" t="s">
@@ -4499,7 +4483,7 @@
       <c r="N57" t="s">
         <v>95</v>
       </c>
-      <c r="P57" s="4" t="s">
+      <c r="P57" s="3" t="s">
         <v>96</v>
       </c>
       <c r="Q57">
@@ -4529,10 +4513,10 @@
         <v>114</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G58" t="s">
         <v>33</v>
@@ -4540,7 +4524,7 @@
       <c r="H58" t="s">
         <v>114</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="K58" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L58" t="s">
@@ -4552,7 +4536,7 @@
       <c r="N58" t="s">
         <v>95</v>
       </c>
-      <c r="P58" s="4" t="s">
+      <c r="P58" s="3" t="s">
         <v>98</v>
       </c>
       <c r="Q58">
@@ -4582,10 +4566,10 @@
         <v>114</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G59" t="s">
         <v>33</v>
@@ -4593,7 +4577,7 @@
       <c r="H59" t="s">
         <v>114</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="K59" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L59" t="s">
@@ -4602,7 +4586,7 @@
       <c r="M59" t="s">
         <v>100</v>
       </c>
-      <c r="P59" s="4" t="s">
+      <c r="P59" s="3" t="s">
         <v>101</v>
       </c>
       <c r="Q59">
@@ -4647,10 +4631,10 @@
         <v>120</v>
       </c>
       <c r="D60" t="s">
-        <v>151</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G60" t="s">
         <v>33</v>
@@ -4658,7 +4642,7 @@
       <c r="H60" t="s">
         <v>120</v>
       </c>
-      <c r="K60" s="4" t="s">
+      <c r="K60" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L60" t="s">
@@ -4670,7 +4654,7 @@
       <c r="N60" t="s">
         <v>47</v>
       </c>
-      <c r="P60" s="4" t="s">
+      <c r="P60" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q60">
@@ -4695,7 +4679,7 @@
         <v>46</v>
       </c>
       <c r="AE60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -4706,10 +4690,10 @@
         <v>120</v>
       </c>
       <c r="D61" t="s">
-        <v>151</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G61" t="s">
         <v>33</v>
@@ -4717,7 +4701,7 @@
       <c r="H61" t="s">
         <v>120</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="K61" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L61" t="s">
@@ -4729,7 +4713,7 @@
       <c r="N61" t="s">
         <v>53</v>
       </c>
-      <c r="P61" s="4" t="s">
+      <c r="P61" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Q61">
@@ -4759,10 +4743,10 @@
         <v>120</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -4770,7 +4754,7 @@
       <c r="H62" t="s">
         <v>120</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="K62" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L62" t="s">
@@ -4782,7 +4766,7 @@
       <c r="N62" t="s">
         <v>58</v>
       </c>
-      <c r="P62" s="4" t="s">
+      <c r="P62" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q62">
@@ -4804,7 +4788,7 @@
         <v>57</v>
       </c>
       <c r="AE62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="2:31" x14ac:dyDescent="0.25">
@@ -4815,10 +4799,10 @@
         <v>120</v>
       </c>
       <c r="D63" t="s">
-        <v>151</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G63" t="s">
         <v>33</v>
@@ -4826,7 +4810,7 @@
       <c r="H63" t="s">
         <v>120</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="K63" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L63" t="s">
@@ -4838,7 +4822,7 @@
       <c r="N63" t="s">
         <v>62</v>
       </c>
-      <c r="P63" s="4" t="s">
+      <c r="P63" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q63">
@@ -4866,7 +4850,7 @@
         <v>50</v>
       </c>
       <c r="AC63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD63" t="s">
         <v>61</v>
@@ -4883,10 +4867,10 @@
         <v>120</v>
       </c>
       <c r="D64" t="s">
-        <v>151</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G64" t="s">
         <v>33</v>
@@ -4894,7 +4878,7 @@
       <c r="H64" t="s">
         <v>120</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="K64" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L64" t="s">
@@ -4906,7 +4890,7 @@
       <c r="N64" t="s">
         <v>65</v>
       </c>
-      <c r="P64" s="4" t="s">
+      <c r="P64" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q64">
@@ -4951,10 +4935,10 @@
         <v>120</v>
       </c>
       <c r="D65" t="s">
-        <v>151</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
@@ -4962,7 +4946,7 @@
       <c r="H65" t="s">
         <v>120</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="K65" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L65" t="s">
@@ -4971,7 +4955,7 @@
       <c r="M65" t="s">
         <v>67</v>
       </c>
-      <c r="P65" s="4" t="s">
+      <c r="P65" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Q65">
@@ -5001,10 +4985,10 @@
         <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>151</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G66" t="s">
         <v>33</v>
@@ -5012,7 +4996,7 @@
       <c r="H66" t="s">
         <v>120</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="K66" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L66" t="s">
@@ -5024,7 +5008,7 @@
       <c r="N66" t="s">
         <v>71</v>
       </c>
-      <c r="P66" s="4" t="s">
+      <c r="P66" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q66">
@@ -5049,7 +5033,7 @@
         <v>122</v>
       </c>
       <c r="AC66" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD66" t="s">
         <v>70</v>
@@ -5066,10 +5050,10 @@
         <v>120</v>
       </c>
       <c r="D67" t="s">
-        <v>151</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -5077,7 +5061,7 @@
       <c r="H67" t="s">
         <v>120</v>
       </c>
-      <c r="K67" s="4" t="s">
+      <c r="K67" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L67" t="s">
@@ -5089,7 +5073,7 @@
       <c r="N67" t="s">
         <v>78</v>
       </c>
-      <c r="P67" s="4" t="s">
+      <c r="P67" s="3" t="s">
         <v>79</v>
       </c>
       <c r="Q67">
@@ -5134,10 +5118,10 @@
         <v>120</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G68" t="s">
         <v>33</v>
@@ -5145,7 +5129,7 @@
       <c r="H68" t="s">
         <v>120</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="K68" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L68" t="s">
@@ -5154,7 +5138,7 @@
       <c r="M68" t="s">
         <v>84</v>
       </c>
-      <c r="P68" s="4" t="s">
+      <c r="P68" s="3" t="s">
         <v>85</v>
       </c>
       <c r="Q68">
@@ -5184,10 +5168,10 @@
         <v>120</v>
       </c>
       <c r="D69" t="s">
-        <v>151</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G69" t="s">
         <v>33</v>
@@ -5195,7 +5179,7 @@
       <c r="H69" t="s">
         <v>120</v>
       </c>
-      <c r="K69" s="4" t="s">
+      <c r="K69" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L69" t="s">
@@ -5207,7 +5191,7 @@
       <c r="N69" t="s">
         <v>88</v>
       </c>
-      <c r="P69" s="4" t="s">
+      <c r="P69" s="3" t="s">
         <v>89</v>
       </c>
       <c r="Q69">
@@ -5237,10 +5221,10 @@
         <v>120</v>
       </c>
       <c r="D70" t="s">
-        <v>151</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -5248,7 +5232,7 @@
       <c r="H70" t="s">
         <v>120</v>
       </c>
-      <c r="K70" s="4" t="s">
+      <c r="K70" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L70" t="s">
@@ -5257,7 +5241,7 @@
       <c r="M70" t="s">
         <v>91</v>
       </c>
-      <c r="P70" s="4" t="s">
+      <c r="P70" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q70">
@@ -5302,10 +5286,10 @@
         <v>120</v>
       </c>
       <c r="D71" t="s">
-        <v>151</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -5313,7 +5297,7 @@
       <c r="H71" t="s">
         <v>120</v>
       </c>
-      <c r="K71" s="4" t="s">
+      <c r="K71" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L71" t="s">
@@ -5325,7 +5309,7 @@
       <c r="N71" t="s">
         <v>95</v>
       </c>
-      <c r="P71" s="4" t="s">
+      <c r="P71" s="3" t="s">
         <v>96</v>
       </c>
       <c r="Q71">
@@ -5355,10 +5339,10 @@
         <v>120</v>
       </c>
       <c r="D72" t="s">
-        <v>151</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
@@ -5366,7 +5350,7 @@
       <c r="H72" t="s">
         <v>120</v>
       </c>
-      <c r="K72" s="4" t="s">
+      <c r="K72" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L72" t="s">
@@ -5378,7 +5362,7 @@
       <c r="N72" t="s">
         <v>95</v>
       </c>
-      <c r="P72" s="4" t="s">
+      <c r="P72" s="3" t="s">
         <v>98</v>
       </c>
       <c r="Q72">
@@ -5408,10 +5392,10 @@
         <v>120</v>
       </c>
       <c r="D73" t="s">
-        <v>151</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G73" t="s">
         <v>33</v>
@@ -5419,7 +5403,7 @@
       <c r="H73" t="s">
         <v>120</v>
       </c>
-      <c r="K73" s="4" t="s">
+      <c r="K73" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L73" t="s">
@@ -5428,7 +5412,7 @@
       <c r="M73" t="s">
         <v>100</v>
       </c>
-      <c r="P73" s="4" t="s">
+      <c r="P73" s="3" t="s">
         <v>101</v>
       </c>
       <c r="Q73">
@@ -5473,10 +5457,10 @@
         <v>123</v>
       </c>
       <c r="D74" t="s">
-        <v>151</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G74" t="s">
         <v>33</v>
@@ -5484,7 +5468,7 @@
       <c r="H74" t="s">
         <v>123</v>
       </c>
-      <c r="K74" s="4" t="s">
+      <c r="K74" s="3" t="s">
         <v>124</v>
       </c>
       <c r="L74" t="s">
@@ -5496,7 +5480,7 @@
       <c r="N74" t="s">
         <v>47</v>
       </c>
-      <c r="P74" s="4" t="s">
+      <c r="P74" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q74">
@@ -5521,7 +5505,7 @@
         <v>46</v>
       </c>
       <c r="AE74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -5532,10 +5516,10 @@
         <v>123</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G75" t="s">
         <v>33</v>
@@ -5543,7 +5527,7 @@
       <c r="H75" t="s">
         <v>123</v>
       </c>
-      <c r="K75" s="4" t="s">
+      <c r="K75" s="3" t="s">
         <v>124</v>
       </c>
       <c r="L75" t="s">
@@ -5555,7 +5539,7 @@
       <c r="N75" t="s">
         <v>53</v>
       </c>
-      <c r="P75" s="4" t="s">
+      <c r="P75" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Q75">
@@ -5585,10 +5569,10 @@
         <v>123</v>
       </c>
       <c r="D76" t="s">
-        <v>151</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G76" t="s">
         <v>33</v>
@@ -5596,7 +5580,7 @@
       <c r="H76" t="s">
         <v>123</v>
       </c>
-      <c r="K76" s="4" t="s">
+      <c r="K76" s="3" t="s">
         <v>124</v>
       </c>
       <c r="L76" t="s">
@@ -5608,7 +5592,7 @@
       <c r="N76" t="s">
         <v>58</v>
       </c>
-      <c r="P76" s="4" t="s">
+      <c r="P76" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q76">
@@ -5630,7 +5614,7 @@
         <v>57</v>
       </c>
       <c r="AE76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -5641,10 +5625,10 @@
         <v>123</v>
       </c>
       <c r="D77" t="s">
-        <v>151</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G77" t="s">
         <v>33</v>
@@ -5652,7 +5636,7 @@
       <c r="H77" t="s">
         <v>123</v>
       </c>
-      <c r="K77" s="4" t="s">
+      <c r="K77" s="3" t="s">
         <v>124</v>
       </c>
       <c r="L77" t="s">
@@ -5664,7 +5648,7 @@
       <c r="N77" t="s">
         <v>62</v>
       </c>
-      <c r="P77" s="4" t="s">
+      <c r="P77" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q77">
@@ -5692,7 +5676,7 @@
         <v>50</v>
       </c>
       <c r="AC77" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD77" t="s">
         <v>61</v>
@@ -5709,10 +5693,10 @@
         <v>123</v>
       </c>
       <c r="D78" t="s">
-        <v>151</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G78" t="s">
         <v>33</v>
@@ -5720,7 +5704,7 @@
       <c r="H78" t="s">
         <v>123</v>
       </c>
-      <c r="K78" s="4" t="s">
+      <c r="K78" s="3" t="s">
         <v>124</v>
       </c>
       <c r="L78" t="s">
@@ -5732,7 +5716,7 @@
       <c r="N78" t="s">
         <v>65</v>
       </c>
-      <c r="P78" s="4" t="s">
+      <c r="P78" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q78">
@@ -5777,10 +5761,10 @@
         <v>123</v>
       </c>
       <c r="D79" t="s">
-        <v>151</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G79" t="s">
         <v>33</v>
@@ -5788,7 +5772,7 @@
       <c r="H79" t="s">
         <v>123</v>
       </c>
-      <c r="K79" s="4" t="s">
+      <c r="K79" s="3" t="s">
         <v>124</v>
       </c>
       <c r="L79" t="s">
@@ -5797,7 +5781,7 @@
       <c r="M79" t="s">
         <v>67</v>
       </c>
-      <c r="P79" s="4" t="s">
+      <c r="P79" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Q79">
@@ -5827,10 +5811,10 @@
         <v>123</v>
       </c>
       <c r="D80" t="s">
-        <v>151</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -5838,7 +5822,7 @@
       <c r="H80" t="s">
         <v>123</v>
       </c>
-      <c r="K80" s="4" t="s">
+      <c r="K80" s="3" t="s">
         <v>124</v>
       </c>
       <c r="L80" t="s">
@@ -5850,7 +5834,7 @@
       <c r="N80" t="s">
         <v>71</v>
       </c>
-      <c r="P80" s="4" t="s">
+      <c r="P80" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q80">
@@ -5895,10 +5879,10 @@
         <v>123</v>
       </c>
       <c r="D81" t="s">
-        <v>151</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G81" t="s">
         <v>33</v>
@@ -5906,7 +5890,7 @@
       <c r="H81" t="s">
         <v>123</v>
       </c>
-      <c r="K81" s="4" t="s">
+      <c r="K81" s="3" t="s">
         <v>124</v>
       </c>
       <c r="L81" t="s">
@@ -5918,7 +5902,7 @@
       <c r="N81" t="s">
         <v>78</v>
       </c>
-      <c r="P81" s="4" t="s">
+      <c r="P81" s="3" t="s">
         <v>79</v>
       </c>
       <c r="Q81">
@@ -5963,10 +5947,10 @@
         <v>123</v>
       </c>
       <c r="D82" t="s">
-        <v>151</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G82" t="s">
         <v>33</v>
@@ -5974,7 +5958,7 @@
       <c r="H82" t="s">
         <v>123</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="K82" s="3" t="s">
         <v>124</v>
       </c>
       <c r="L82" t="s">
@@ -5983,7 +5967,7 @@
       <c r="M82" t="s">
         <v>84</v>
       </c>
-      <c r="P82" s="4" t="s">
+      <c r="P82" s="3" t="s">
         <v>85</v>
       </c>
       <c r="Q82">
@@ -6013,10 +5997,10 @@
         <v>123</v>
       </c>
       <c r="D83" t="s">
-        <v>151</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G83" t="s">
         <v>33</v>
@@ -6024,7 +6008,7 @@
       <c r="H83" t="s">
         <v>123</v>
       </c>
-      <c r="K83" s="4" t="s">
+      <c r="K83" s="3" t="s">
         <v>124</v>
       </c>
       <c r="L83" t="s">
@@ -6036,7 +6020,7 @@
       <c r="N83" t="s">
         <v>88</v>
       </c>
-      <c r="P83" s="4" t="s">
+      <c r="P83" s="3" t="s">
         <v>89</v>
       </c>
       <c r="Q83">
@@ -6066,10 +6050,10 @@
         <v>123</v>
       </c>
       <c r="D84" t="s">
-        <v>151</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G84" t="s">
         <v>33</v>
@@ -6077,7 +6061,7 @@
       <c r="H84" t="s">
         <v>123</v>
       </c>
-      <c r="K84" s="4" t="s">
+      <c r="K84" s="3" t="s">
         <v>124</v>
       </c>
       <c r="L84" t="s">
@@ -6086,7 +6070,7 @@
       <c r="M84" t="s">
         <v>91</v>
       </c>
-      <c r="P84" s="4" t="s">
+      <c r="P84" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q84">
@@ -6131,10 +6115,10 @@
         <v>123</v>
       </c>
       <c r="D85" t="s">
-        <v>151</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G85" t="s">
         <v>33</v>
@@ -6142,7 +6126,7 @@
       <c r="H85" t="s">
         <v>123</v>
       </c>
-      <c r="K85" s="4" t="s">
+      <c r="K85" s="3" t="s">
         <v>124</v>
       </c>
       <c r="L85" t="s">
@@ -6154,7 +6138,7 @@
       <c r="N85" t="s">
         <v>95</v>
       </c>
-      <c r="P85" s="4" t="s">
+      <c r="P85" s="3" t="s">
         <v>96</v>
       </c>
       <c r="Q85">
@@ -6184,10 +6168,10 @@
         <v>123</v>
       </c>
       <c r="D86" t="s">
-        <v>151</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G86" t="s">
         <v>33</v>
@@ -6195,7 +6179,7 @@
       <c r="H86" t="s">
         <v>123</v>
       </c>
-      <c r="K86" s="4" t="s">
+      <c r="K86" s="3" t="s">
         <v>124</v>
       </c>
       <c r="L86" t="s">
@@ -6207,7 +6191,7 @@
       <c r="N86" t="s">
         <v>95</v>
       </c>
-      <c r="P86" s="4" t="s">
+      <c r="P86" s="3" t="s">
         <v>98</v>
       </c>
       <c r="Q86">
@@ -6237,10 +6221,10 @@
         <v>123</v>
       </c>
       <c r="D87" t="s">
-        <v>151</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G87" t="s">
         <v>33</v>
@@ -6248,7 +6232,7 @@
       <c r="H87" t="s">
         <v>123</v>
       </c>
-      <c r="K87" s="4" t="s">
+      <c r="K87" s="3" t="s">
         <v>124</v>
       </c>
       <c r="L87" t="s">
@@ -6257,7 +6241,7 @@
       <c r="M87" t="s">
         <v>100</v>
       </c>
-      <c r="P87" s="4" t="s">
+      <c r="P87" s="3" t="s">
         <v>101</v>
       </c>
       <c r="Q87">
@@ -6302,10 +6286,10 @@
         <v>126</v>
       </c>
       <c r="D88" t="s">
-        <v>151</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G88" t="s">
         <v>33</v>
@@ -6313,7 +6297,7 @@
       <c r="H88" t="s">
         <v>126</v>
       </c>
-      <c r="K88" s="4" t="s">
+      <c r="K88" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L88" t="s">
@@ -6325,7 +6309,7 @@
       <c r="N88" t="s">
         <v>47</v>
       </c>
-      <c r="P88" s="4" t="s">
+      <c r="P88" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q88">
@@ -6350,7 +6334,7 @@
         <v>46</v>
       </c>
       <c r="AE88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -6361,10 +6345,10 @@
         <v>126</v>
       </c>
       <c r="D89" t="s">
-        <v>151</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G89" t="s">
         <v>33</v>
@@ -6372,7 +6356,7 @@
       <c r="H89" t="s">
         <v>126</v>
       </c>
-      <c r="K89" s="4" t="s">
+      <c r="K89" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L89" t="s">
@@ -6384,7 +6368,7 @@
       <c r="N89" t="s">
         <v>53</v>
       </c>
-      <c r="P89" s="4" t="s">
+      <c r="P89" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Q89">
@@ -6414,10 +6398,10 @@
         <v>126</v>
       </c>
       <c r="D90" t="s">
-        <v>151</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G90" t="s">
         <v>33</v>
@@ -6425,7 +6409,7 @@
       <c r="H90" t="s">
         <v>126</v>
       </c>
-      <c r="K90" s="4" t="s">
+      <c r="K90" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L90" t="s">
@@ -6437,7 +6421,7 @@
       <c r="N90" t="s">
         <v>58</v>
       </c>
-      <c r="P90" s="4" t="s">
+      <c r="P90" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q90">
@@ -6459,7 +6443,7 @@
         <v>57</v>
       </c>
       <c r="AE90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -6470,10 +6454,10 @@
         <v>126</v>
       </c>
       <c r="D91" t="s">
-        <v>151</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G91" t="s">
         <v>33</v>
@@ -6481,7 +6465,7 @@
       <c r="H91" t="s">
         <v>126</v>
       </c>
-      <c r="K91" s="4" t="s">
+      <c r="K91" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L91" t="s">
@@ -6493,7 +6477,7 @@
       <c r="N91" t="s">
         <v>62</v>
       </c>
-      <c r="P91" s="4" t="s">
+      <c r="P91" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q91">
@@ -6521,7 +6505,7 @@
         <v>50</v>
       </c>
       <c r="AC91" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD91" t="s">
         <v>61</v>
@@ -6538,10 +6522,10 @@
         <v>126</v>
       </c>
       <c r="D92" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G92" t="s">
         <v>33</v>
@@ -6549,7 +6533,7 @@
       <c r="H92" t="s">
         <v>126</v>
       </c>
-      <c r="K92" s="4" t="s">
+      <c r="K92" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L92" t="s">
@@ -6561,7 +6545,7 @@
       <c r="N92" t="s">
         <v>65</v>
       </c>
-      <c r="P92" s="4" t="s">
+      <c r="P92" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q92">
@@ -6606,10 +6590,10 @@
         <v>126</v>
       </c>
       <c r="D93" t="s">
-        <v>151</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G93" t="s">
         <v>33</v>
@@ -6617,7 +6601,7 @@
       <c r="H93" t="s">
         <v>126</v>
       </c>
-      <c r="K93" s="4" t="s">
+      <c r="K93" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L93" t="s">
@@ -6626,7 +6610,7 @@
       <c r="M93" t="s">
         <v>67</v>
       </c>
-      <c r="P93" s="4" t="s">
+      <c r="P93" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Q93">
@@ -6656,10 +6640,10 @@
         <v>126</v>
       </c>
       <c r="D94" t="s">
-        <v>151</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G94" t="s">
         <v>33</v>
@@ -6667,7 +6651,7 @@
       <c r="H94" t="s">
         <v>126</v>
       </c>
-      <c r="K94" s="4" t="s">
+      <c r="K94" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L94" t="s">
@@ -6679,7 +6663,7 @@
       <c r="N94" t="s">
         <v>71</v>
       </c>
-      <c r="P94" s="4" t="s">
+      <c r="P94" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q94">
@@ -6715,10 +6699,10 @@
         <v>126</v>
       </c>
       <c r="D95" t="s">
-        <v>151</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G95" t="s">
         <v>33</v>
@@ -6726,7 +6710,7 @@
       <c r="H95" t="s">
         <v>126</v>
       </c>
-      <c r="K95" s="4" t="s">
+      <c r="K95" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L95" t="s">
@@ -6738,7 +6722,7 @@
       <c r="N95" t="s">
         <v>78</v>
       </c>
-      <c r="P95" s="4" t="s">
+      <c r="P95" s="3" t="s">
         <v>79</v>
       </c>
       <c r="Q95">
@@ -6783,10 +6767,10 @@
         <v>126</v>
       </c>
       <c r="D96" t="s">
-        <v>151</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G96" t="s">
         <v>33</v>
@@ -6794,7 +6778,7 @@
       <c r="H96" t="s">
         <v>126</v>
       </c>
-      <c r="K96" s="4" t="s">
+      <c r="K96" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L96" t="s">
@@ -6803,7 +6787,7 @@
       <c r="M96" t="s">
         <v>84</v>
       </c>
-      <c r="P96" s="4" t="s">
+      <c r="P96" s="3" t="s">
         <v>85</v>
       </c>
       <c r="Q96">
@@ -6833,10 +6817,10 @@
         <v>126</v>
       </c>
       <c r="D97" t="s">
-        <v>151</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G97" t="s">
         <v>33</v>
@@ -6844,7 +6828,7 @@
       <c r="H97" t="s">
         <v>126</v>
       </c>
-      <c r="K97" s="4" t="s">
+      <c r="K97" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L97" t="s">
@@ -6856,7 +6840,7 @@
       <c r="N97" t="s">
         <v>88</v>
       </c>
-      <c r="P97" s="4" t="s">
+      <c r="P97" s="3" t="s">
         <v>89</v>
       </c>
       <c r="Q97">
@@ -6886,10 +6870,10 @@
         <v>126</v>
       </c>
       <c r="D98" t="s">
-        <v>151</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G98" t="s">
         <v>33</v>
@@ -6897,7 +6881,7 @@
       <c r="H98" t="s">
         <v>126</v>
       </c>
-      <c r="K98" s="4" t="s">
+      <c r="K98" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L98" t="s">
@@ -6906,7 +6890,7 @@
       <c r="M98" t="s">
         <v>91</v>
       </c>
-      <c r="P98" s="4" t="s">
+      <c r="P98" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q98">
@@ -6951,10 +6935,10 @@
         <v>126</v>
       </c>
       <c r="D99" t="s">
-        <v>151</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G99" t="s">
         <v>33</v>
@@ -6962,7 +6946,7 @@
       <c r="H99" t="s">
         <v>126</v>
       </c>
-      <c r="K99" s="4" t="s">
+      <c r="K99" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L99" t="s">
@@ -6974,7 +6958,7 @@
       <c r="N99" t="s">
         <v>95</v>
       </c>
-      <c r="P99" s="4" t="s">
+      <c r="P99" s="3" t="s">
         <v>96</v>
       </c>
       <c r="Q99">
@@ -7004,10 +6988,10 @@
         <v>126</v>
       </c>
       <c r="D100" t="s">
-        <v>151</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G100" t="s">
         <v>33</v>
@@ -7015,7 +6999,7 @@
       <c r="H100" t="s">
         <v>126</v>
       </c>
-      <c r="K100" s="4" t="s">
+      <c r="K100" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L100" t="s">
@@ -7027,7 +7011,7 @@
       <c r="N100" t="s">
         <v>95</v>
       </c>
-      <c r="P100" s="4" t="s">
+      <c r="P100" s="3" t="s">
         <v>98</v>
       </c>
       <c r="Q100">
@@ -7057,10 +7041,10 @@
         <v>126</v>
       </c>
       <c r="D101" t="s">
-        <v>151</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -7068,7 +7052,7 @@
       <c r="H101" t="s">
         <v>126</v>
       </c>
-      <c r="K101" s="4" t="s">
+      <c r="K101" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L101" t="s">
@@ -7077,7 +7061,7 @@
       <c r="M101" t="s">
         <v>100</v>
       </c>
-      <c r="P101" s="4" t="s">
+      <c r="P101" s="3" t="s">
         <v>101</v>
       </c>
       <c r="Q101">
@@ -7122,10 +7106,10 @@
         <v>129</v>
       </c>
       <c r="D102" t="s">
-        <v>151</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G102" t="s">
         <v>33</v>
@@ -7133,7 +7117,7 @@
       <c r="H102" t="s">
         <v>129</v>
       </c>
-      <c r="K102" s="4" t="s">
+      <c r="K102" s="3" t="s">
         <v>130</v>
       </c>
       <c r="L102" t="s">
@@ -7145,7 +7129,7 @@
       <c r="N102" t="s">
         <v>47</v>
       </c>
-      <c r="P102" s="4" t="s">
+      <c r="P102" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q102">
@@ -7170,7 +7154,7 @@
         <v>46</v>
       </c>
       <c r="AE102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="2:31" ht="45" x14ac:dyDescent="0.25">
@@ -7181,10 +7165,10 @@
         <v>129</v>
       </c>
       <c r="D103" t="s">
-        <v>151</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G103" t="s">
         <v>33</v>
@@ -7192,7 +7176,7 @@
       <c r="H103" t="s">
         <v>129</v>
       </c>
-      <c r="K103" s="4" t="s">
+      <c r="K103" s="3" t="s">
         <v>130</v>
       </c>
       <c r="L103" t="s">
@@ -7204,7 +7188,7 @@
       <c r="N103" t="s">
         <v>53</v>
       </c>
-      <c r="P103" s="4" t="s">
+      <c r="P103" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Q103">
@@ -7234,10 +7218,10 @@
         <v>129</v>
       </c>
       <c r="D104" t="s">
-        <v>151</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G104" t="s">
         <v>33</v>
@@ -7245,7 +7229,7 @@
       <c r="H104" t="s">
         <v>129</v>
       </c>
-      <c r="K104" s="4" t="s">
+      <c r="K104" s="3" t="s">
         <v>130</v>
       </c>
       <c r="L104" t="s">
@@ -7257,7 +7241,7 @@
       <c r="N104" t="s">
         <v>58</v>
       </c>
-      <c r="P104" s="4" t="s">
+      <c r="P104" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q104">
@@ -7279,7 +7263,7 @@
         <v>57</v>
       </c>
       <c r="AE104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="2:31" ht="45" x14ac:dyDescent="0.25">
@@ -7290,10 +7274,10 @@
         <v>129</v>
       </c>
       <c r="D105" t="s">
-        <v>151</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G105" t="s">
         <v>33</v>
@@ -7301,7 +7285,7 @@
       <c r="H105" t="s">
         <v>129</v>
       </c>
-      <c r="K105" s="4" t="s">
+      <c r="K105" s="3" t="s">
         <v>130</v>
       </c>
       <c r="L105" t="s">
@@ -7313,7 +7297,7 @@
       <c r="N105" t="s">
         <v>62</v>
       </c>
-      <c r="P105" s="4" t="s">
+      <c r="P105" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q105">
@@ -7341,7 +7325,7 @@
         <v>50</v>
       </c>
       <c r="AC105" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD105" t="s">
         <v>61</v>
@@ -7358,10 +7342,10 @@
         <v>129</v>
       </c>
       <c r="D106" t="s">
-        <v>151</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G106" t="s">
         <v>33</v>
@@ -7369,7 +7353,7 @@
       <c r="H106" t="s">
         <v>129</v>
       </c>
-      <c r="K106" s="4" t="s">
+      <c r="K106" s="3" t="s">
         <v>130</v>
       </c>
       <c r="L106" t="s">
@@ -7381,7 +7365,7 @@
       <c r="N106" t="s">
         <v>65</v>
       </c>
-      <c r="P106" s="4" t="s">
+      <c r="P106" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q106">
@@ -7426,10 +7410,10 @@
         <v>129</v>
       </c>
       <c r="D107" t="s">
-        <v>151</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G107" t="s">
         <v>33</v>
@@ -7437,7 +7421,7 @@
       <c r="H107" t="s">
         <v>129</v>
       </c>
-      <c r="K107" s="4" t="s">
+      <c r="K107" s="3" t="s">
         <v>130</v>
       </c>
       <c r="L107" t="s">
@@ -7446,7 +7430,7 @@
       <c r="M107" t="s">
         <v>67</v>
       </c>
-      <c r="P107" s="4" t="s">
+      <c r="P107" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Q107">
@@ -7476,10 +7460,10 @@
         <v>129</v>
       </c>
       <c r="D108" t="s">
-        <v>151</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G108" t="s">
         <v>33</v>
@@ -7487,7 +7471,7 @@
       <c r="H108" t="s">
         <v>129</v>
       </c>
-      <c r="K108" s="4" t="s">
+      <c r="K108" s="3" t="s">
         <v>130</v>
       </c>
       <c r="L108" t="s">
@@ -7499,7 +7483,7 @@
       <c r="N108" t="s">
         <v>71</v>
       </c>
-      <c r="P108" s="4" t="s">
+      <c r="P108" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q108">
@@ -7535,10 +7519,10 @@
         <v>129</v>
       </c>
       <c r="D109" t="s">
-        <v>151</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G109" t="s">
         <v>33</v>
@@ -7546,7 +7530,7 @@
       <c r="H109" t="s">
         <v>129</v>
       </c>
-      <c r="K109" s="4" t="s">
+      <c r="K109" s="3" t="s">
         <v>130</v>
       </c>
       <c r="L109" t="s">
@@ -7558,7 +7542,7 @@
       <c r="N109" t="s">
         <v>78</v>
       </c>
-      <c r="P109" s="4" t="s">
+      <c r="P109" s="3" t="s">
         <v>79</v>
       </c>
       <c r="Q109">
@@ -7603,10 +7587,10 @@
         <v>129</v>
       </c>
       <c r="D110" t="s">
-        <v>151</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G110" t="s">
         <v>33</v>
@@ -7614,7 +7598,7 @@
       <c r="H110" t="s">
         <v>129</v>
       </c>
-      <c r="K110" s="4" t="s">
+      <c r="K110" s="3" t="s">
         <v>130</v>
       </c>
       <c r="L110" t="s">
@@ -7623,7 +7607,7 @@
       <c r="M110" t="s">
         <v>84</v>
       </c>
-      <c r="P110" s="4" t="s">
+      <c r="P110" s="3" t="s">
         <v>85</v>
       </c>
       <c r="Q110">
@@ -7653,10 +7637,10 @@
         <v>129</v>
       </c>
       <c r="D111" t="s">
-        <v>151</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G111" t="s">
         <v>33</v>
@@ -7664,7 +7648,7 @@
       <c r="H111" t="s">
         <v>129</v>
       </c>
-      <c r="K111" s="4" t="s">
+      <c r="K111" s="3" t="s">
         <v>130</v>
       </c>
       <c r="L111" t="s">
@@ -7676,7 +7660,7 @@
       <c r="N111" t="s">
         <v>88</v>
       </c>
-      <c r="P111" s="4" t="s">
+      <c r="P111" s="3" t="s">
         <v>89</v>
       </c>
       <c r="Q111">
@@ -7706,10 +7690,10 @@
         <v>129</v>
       </c>
       <c r="D112" t="s">
-        <v>151</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G112" t="s">
         <v>33</v>
@@ -7717,7 +7701,7 @@
       <c r="H112" t="s">
         <v>129</v>
       </c>
-      <c r="K112" s="4" t="s">
+      <c r="K112" s="3" t="s">
         <v>130</v>
       </c>
       <c r="L112" t="s">
@@ -7726,7 +7710,7 @@
       <c r="M112" t="s">
         <v>91</v>
       </c>
-      <c r="P112" s="4" t="s">
+      <c r="P112" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q112">
@@ -7771,10 +7755,10 @@
         <v>129</v>
       </c>
       <c r="D113" t="s">
-        <v>151</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G113" t="s">
         <v>33</v>
@@ -7782,7 +7766,7 @@
       <c r="H113" t="s">
         <v>129</v>
       </c>
-      <c r="K113" s="4" t="s">
+      <c r="K113" s="3" t="s">
         <v>130</v>
       </c>
       <c r="L113" t="s">
@@ -7794,7 +7778,7 @@
       <c r="N113" t="s">
         <v>95</v>
       </c>
-      <c r="P113" s="4" t="s">
+      <c r="P113" s="3" t="s">
         <v>96</v>
       </c>
       <c r="Q113">
@@ -7824,10 +7808,10 @@
         <v>129</v>
       </c>
       <c r="D114" t="s">
-        <v>151</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G114" t="s">
         <v>33</v>
@@ -7835,7 +7819,7 @@
       <c r="H114" t="s">
         <v>129</v>
       </c>
-      <c r="K114" s="4" t="s">
+      <c r="K114" s="3" t="s">
         <v>130</v>
       </c>
       <c r="L114" t="s">
@@ -7847,7 +7831,7 @@
       <c r="N114" t="s">
         <v>95</v>
       </c>
-      <c r="P114" s="4" t="s">
+      <c r="P114" s="3" t="s">
         <v>98</v>
       </c>
       <c r="Q114">
@@ -7877,10 +7861,10 @@
         <v>129</v>
       </c>
       <c r="D115" t="s">
-        <v>151</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G115" t="s">
         <v>33</v>
@@ -7888,7 +7872,7 @@
       <c r="H115" t="s">
         <v>129</v>
       </c>
-      <c r="K115" s="4" t="s">
+      <c r="K115" s="3" t="s">
         <v>130</v>
       </c>
       <c r="L115" t="s">
@@ -7897,7 +7881,7 @@
       <c r="M115" t="s">
         <v>100</v>
       </c>
-      <c r="P115" s="4" t="s">
+      <c r="P115" s="3" t="s">
         <v>101</v>
       </c>
       <c r="Q115">
@@ -7942,10 +7926,10 @@
         <v>132</v>
       </c>
       <c r="D116" t="s">
-        <v>151</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G116" t="s">
         <v>33</v>
@@ -7953,7 +7937,7 @@
       <c r="H116" t="s">
         <v>132</v>
       </c>
-      <c r="K116" s="4" t="s">
+      <c r="K116" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L116" t="s">
@@ -7965,7 +7949,7 @@
       <c r="N116" t="s">
         <v>47</v>
       </c>
-      <c r="P116" s="4" t="s">
+      <c r="P116" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q116">
@@ -7990,7 +7974,7 @@
         <v>46</v>
       </c>
       <c r="AE116" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -8001,10 +7985,10 @@
         <v>132</v>
       </c>
       <c r="D117" t="s">
-        <v>151</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G117" t="s">
         <v>33</v>
@@ -8012,7 +7996,7 @@
       <c r="H117" t="s">
         <v>132</v>
       </c>
-      <c r="K117" s="4" t="s">
+      <c r="K117" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L117" t="s">
@@ -8024,7 +8008,7 @@
       <c r="N117" t="s">
         <v>53</v>
       </c>
-      <c r="P117" s="4" t="s">
+      <c r="P117" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Q117">
@@ -8054,10 +8038,10 @@
         <v>132</v>
       </c>
       <c r="D118" t="s">
-        <v>151</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G118" t="s">
         <v>33</v>
@@ -8065,7 +8049,7 @@
       <c r="H118" t="s">
         <v>132</v>
       </c>
-      <c r="K118" s="4" t="s">
+      <c r="K118" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L118" t="s">
@@ -8077,7 +8061,7 @@
       <c r="N118" t="s">
         <v>58</v>
       </c>
-      <c r="P118" s="4" t="s">
+      <c r="P118" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q118">
@@ -8099,7 +8083,7 @@
         <v>57</v>
       </c>
       <c r="AE118" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="2:31" x14ac:dyDescent="0.25">
@@ -8110,10 +8094,10 @@
         <v>132</v>
       </c>
       <c r="D119" t="s">
-        <v>151</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G119" t="s">
         <v>33</v>
@@ -8121,7 +8105,7 @@
       <c r="H119" t="s">
         <v>132</v>
       </c>
-      <c r="K119" s="4" t="s">
+      <c r="K119" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L119" t="s">
@@ -8133,7 +8117,7 @@
       <c r="N119" t="s">
         <v>62</v>
       </c>
-      <c r="P119" s="4" t="s">
+      <c r="P119" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q119">
@@ -8161,7 +8145,7 @@
         <v>50</v>
       </c>
       <c r="AC119" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD119" t="s">
         <v>61</v>
@@ -8178,10 +8162,10 @@
         <v>132</v>
       </c>
       <c r="D120" t="s">
-        <v>151</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G120" t="s">
         <v>33</v>
@@ -8189,7 +8173,7 @@
       <c r="H120" t="s">
         <v>132</v>
       </c>
-      <c r="K120" s="4" t="s">
+      <c r="K120" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L120" t="s">
@@ -8201,7 +8185,7 @@
       <c r="N120" t="s">
         <v>65</v>
       </c>
-      <c r="P120" s="4" t="s">
+      <c r="P120" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q120">
@@ -8246,10 +8230,10 @@
         <v>132</v>
       </c>
       <c r="D121" t="s">
-        <v>151</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G121" t="s">
         <v>33</v>
@@ -8257,7 +8241,7 @@
       <c r="H121" t="s">
         <v>132</v>
       </c>
-      <c r="K121" s="4" t="s">
+      <c r="K121" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L121" t="s">
@@ -8266,7 +8250,7 @@
       <c r="M121" t="s">
         <v>67</v>
       </c>
-      <c r="P121" s="4" t="s">
+      <c r="P121" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Q121">
@@ -8296,10 +8280,10 @@
         <v>132</v>
       </c>
       <c r="D122" t="s">
-        <v>151</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G122" t="s">
         <v>33</v>
@@ -8307,7 +8291,7 @@
       <c r="H122" t="s">
         <v>132</v>
       </c>
-      <c r="K122" s="4" t="s">
+      <c r="K122" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L122" t="s">
@@ -8319,7 +8303,7 @@
       <c r="N122" t="s">
         <v>71</v>
       </c>
-      <c r="P122" s="4" t="s">
+      <c r="P122" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q122">
@@ -8364,10 +8348,10 @@
         <v>132</v>
       </c>
       <c r="D123" t="s">
-        <v>151</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G123" t="s">
         <v>33</v>
@@ -8375,7 +8359,7 @@
       <c r="H123" t="s">
         <v>132</v>
       </c>
-      <c r="K123" s="4" t="s">
+      <c r="K123" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L123" t="s">
@@ -8387,7 +8371,7 @@
       <c r="N123" t="s">
         <v>78</v>
       </c>
-      <c r="P123" s="4" t="s">
+      <c r="P123" s="3" t="s">
         <v>79</v>
       </c>
       <c r="Q123">
@@ -8432,10 +8416,10 @@
         <v>132</v>
       </c>
       <c r="D124" t="s">
-        <v>151</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G124" t="s">
         <v>33</v>
@@ -8443,7 +8427,7 @@
       <c r="H124" t="s">
         <v>132</v>
       </c>
-      <c r="K124" s="4" t="s">
+      <c r="K124" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L124" t="s">
@@ -8452,7 +8436,7 @@
       <c r="M124" t="s">
         <v>84</v>
       </c>
-      <c r="P124" s="4" t="s">
+      <c r="P124" s="3" t="s">
         <v>85</v>
       </c>
       <c r="Q124">
@@ -8482,10 +8466,10 @@
         <v>132</v>
       </c>
       <c r="D125" t="s">
-        <v>151</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G125" t="s">
         <v>33</v>
@@ -8493,7 +8477,7 @@
       <c r="H125" t="s">
         <v>132</v>
       </c>
-      <c r="K125" s="4" t="s">
+      <c r="K125" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L125" t="s">
@@ -8505,7 +8489,7 @@
       <c r="N125" t="s">
         <v>88</v>
       </c>
-      <c r="P125" s="4" t="s">
+      <c r="P125" s="3" t="s">
         <v>89</v>
       </c>
       <c r="Q125">
@@ -8535,10 +8519,10 @@
         <v>132</v>
       </c>
       <c r="D126" t="s">
-        <v>151</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G126" t="s">
         <v>33</v>
@@ -8546,7 +8530,7 @@
       <c r="H126" t="s">
         <v>132</v>
       </c>
-      <c r="K126" s="4" t="s">
+      <c r="K126" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L126" t="s">
@@ -8555,7 +8539,7 @@
       <c r="M126" t="s">
         <v>91</v>
       </c>
-      <c r="P126" s="4" t="s">
+      <c r="P126" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q126">
@@ -8600,10 +8584,10 @@
         <v>132</v>
       </c>
       <c r="D127" t="s">
-        <v>151</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -8611,7 +8595,7 @@
       <c r="H127" t="s">
         <v>132</v>
       </c>
-      <c r="K127" s="4" t="s">
+      <c r="K127" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L127" t="s">
@@ -8623,7 +8607,7 @@
       <c r="N127" t="s">
         <v>95</v>
       </c>
-      <c r="P127" s="4" t="s">
+      <c r="P127" s="3" t="s">
         <v>96</v>
       </c>
       <c r="Q127">
@@ -8653,10 +8637,10 @@
         <v>132</v>
       </c>
       <c r="D128" t="s">
-        <v>151</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G128" t="s">
         <v>33</v>
@@ -8664,7 +8648,7 @@
       <c r="H128" t="s">
         <v>132</v>
       </c>
-      <c r="K128" s="4" t="s">
+      <c r="K128" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L128" t="s">
@@ -8676,7 +8660,7 @@
       <c r="N128" t="s">
         <v>95</v>
       </c>
-      <c r="P128" s="4" t="s">
+      <c r="P128" s="3" t="s">
         <v>98</v>
       </c>
       <c r="Q128">
@@ -8706,10 +8690,10 @@
         <v>132</v>
       </c>
       <c r="D129" t="s">
-        <v>151</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G129" t="s">
         <v>33</v>
@@ -8717,7 +8701,7 @@
       <c r="H129" t="s">
         <v>132</v>
       </c>
-      <c r="K129" s="4" t="s">
+      <c r="K129" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L129" t="s">
@@ -8726,7 +8710,7 @@
       <c r="M129" t="s">
         <v>100</v>
       </c>
-      <c r="P129" s="4" t="s">
+      <c r="P129" s="3" t="s">
         <v>101</v>
       </c>
       <c r="Q129">
@@ -8771,10 +8755,10 @@
         <v>137</v>
       </c>
       <c r="D130" t="s">
-        <v>151</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G130" t="s">
         <v>33</v>
@@ -8782,7 +8766,7 @@
       <c r="H130" t="s">
         <v>137</v>
       </c>
-      <c r="K130" s="4" t="s">
+      <c r="K130" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L130" t="s">
@@ -8794,7 +8778,7 @@
       <c r="N130" t="s">
         <v>47</v>
       </c>
-      <c r="P130" s="4" t="s">
+      <c r="P130" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q130">
@@ -8819,7 +8803,7 @@
         <v>46</v>
       </c>
       <c r="AE130" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -8830,10 +8814,10 @@
         <v>137</v>
       </c>
       <c r="D131" t="s">
-        <v>151</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -8841,7 +8825,7 @@
       <c r="H131" t="s">
         <v>137</v>
       </c>
-      <c r="K131" s="4" t="s">
+      <c r="K131" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L131" t="s">
@@ -8853,7 +8837,7 @@
       <c r="N131" t="s">
         <v>53</v>
       </c>
-      <c r="P131" s="4" t="s">
+      <c r="P131" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Q131">
@@ -8883,10 +8867,10 @@
         <v>137</v>
       </c>
       <c r="D132" t="s">
-        <v>151</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G132" t="s">
         <v>33</v>
@@ -8894,7 +8878,7 @@
       <c r="H132" t="s">
         <v>137</v>
       </c>
-      <c r="K132" s="4" t="s">
+      <c r="K132" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L132" t="s">
@@ -8906,7 +8890,7 @@
       <c r="N132" t="s">
         <v>58</v>
       </c>
-      <c r="P132" s="4" t="s">
+      <c r="P132" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q132">
@@ -8928,7 +8912,7 @@
         <v>57</v>
       </c>
       <c r="AE132" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -8939,10 +8923,10 @@
         <v>137</v>
       </c>
       <c r="D133" t="s">
-        <v>151</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G133" t="s">
         <v>33</v>
@@ -8950,7 +8934,7 @@
       <c r="H133" t="s">
         <v>137</v>
       </c>
-      <c r="K133" s="4" t="s">
+      <c r="K133" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L133" t="s">
@@ -8962,7 +8946,7 @@
       <c r="N133" t="s">
         <v>62</v>
       </c>
-      <c r="P133" s="4" t="s">
+      <c r="P133" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q133">
@@ -8990,7 +8974,7 @@
         <v>50</v>
       </c>
       <c r="AC133" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD133" t="s">
         <v>61</v>
@@ -9007,10 +8991,10 @@
         <v>137</v>
       </c>
       <c r="D134" t="s">
-        <v>151</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G134" t="s">
         <v>33</v>
@@ -9018,7 +9002,7 @@
       <c r="H134" t="s">
         <v>137</v>
       </c>
-      <c r="K134" s="4" t="s">
+      <c r="K134" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L134" t="s">
@@ -9030,7 +9014,7 @@
       <c r="N134" t="s">
         <v>65</v>
       </c>
-      <c r="P134" s="4" t="s">
+      <c r="P134" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q134">
@@ -9075,10 +9059,10 @@
         <v>137</v>
       </c>
       <c r="D135" t="s">
-        <v>151</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G135" t="s">
         <v>33</v>
@@ -9086,7 +9070,7 @@
       <c r="H135" t="s">
         <v>137</v>
       </c>
-      <c r="K135" s="4" t="s">
+      <c r="K135" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L135" t="s">
@@ -9095,7 +9079,7 @@
       <c r="M135" t="s">
         <v>67</v>
       </c>
-      <c r="P135" s="4" t="s">
+      <c r="P135" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Q135">
@@ -9125,10 +9109,10 @@
         <v>137</v>
       </c>
       <c r="D136" t="s">
-        <v>151</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G136" t="s">
         <v>33</v>
@@ -9136,7 +9120,7 @@
       <c r="H136" t="s">
         <v>137</v>
       </c>
-      <c r="K136" s="4" t="s">
+      <c r="K136" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L136" t="s">
@@ -9148,7 +9132,7 @@
       <c r="N136" t="s">
         <v>71</v>
       </c>
-      <c r="P136" s="4" t="s">
+      <c r="P136" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q136">
@@ -9184,10 +9168,10 @@
         <v>137</v>
       </c>
       <c r="D137" t="s">
-        <v>151</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G137" t="s">
         <v>33</v>
@@ -9195,7 +9179,7 @@
       <c r="H137" t="s">
         <v>137</v>
       </c>
-      <c r="K137" s="4" t="s">
+      <c r="K137" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L137" t="s">
@@ -9207,7 +9191,7 @@
       <c r="N137" t="s">
         <v>78</v>
       </c>
-      <c r="P137" s="4" t="s">
+      <c r="P137" s="3" t="s">
         <v>79</v>
       </c>
       <c r="Q137">
@@ -9252,10 +9236,10 @@
         <v>137</v>
       </c>
       <c r="D138" t="s">
-        <v>151</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G138" t="s">
         <v>33</v>
@@ -9263,7 +9247,7 @@
       <c r="H138" t="s">
         <v>137</v>
       </c>
-      <c r="K138" s="4" t="s">
+      <c r="K138" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L138" t="s">
@@ -9272,7 +9256,7 @@
       <c r="M138" t="s">
         <v>84</v>
       </c>
-      <c r="P138" s="4" t="s">
+      <c r="P138" s="3" t="s">
         <v>85</v>
       </c>
       <c r="Q138">
@@ -9302,10 +9286,10 @@
         <v>137</v>
       </c>
       <c r="D139" t="s">
-        <v>151</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G139" t="s">
         <v>33</v>
@@ -9313,7 +9297,7 @@
       <c r="H139" t="s">
         <v>137</v>
       </c>
-      <c r="K139" s="4" t="s">
+      <c r="K139" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L139" t="s">
@@ -9325,7 +9309,7 @@
       <c r="N139" t="s">
         <v>88</v>
       </c>
-      <c r="P139" s="4" t="s">
+      <c r="P139" s="3" t="s">
         <v>89</v>
       </c>
       <c r="Q139">
@@ -9355,10 +9339,10 @@
         <v>137</v>
       </c>
       <c r="D140" t="s">
-        <v>151</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G140" t="s">
         <v>33</v>
@@ -9366,7 +9350,7 @@
       <c r="H140" t="s">
         <v>137</v>
       </c>
-      <c r="K140" s="4" t="s">
+      <c r="K140" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L140" t="s">
@@ -9375,7 +9359,7 @@
       <c r="M140" t="s">
         <v>91</v>
       </c>
-      <c r="P140" s="4" t="s">
+      <c r="P140" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q140">
@@ -9420,10 +9404,10 @@
         <v>137</v>
       </c>
       <c r="D141" t="s">
-        <v>151</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G141" t="s">
         <v>33</v>
@@ -9431,7 +9415,7 @@
       <c r="H141" t="s">
         <v>137</v>
       </c>
-      <c r="K141" s="4" t="s">
+      <c r="K141" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L141" t="s">
@@ -9443,7 +9427,7 @@
       <c r="N141" t="s">
         <v>95</v>
       </c>
-      <c r="P141" s="4" t="s">
+      <c r="P141" s="3" t="s">
         <v>96</v>
       </c>
       <c r="Q141">
@@ -9473,10 +9457,10 @@
         <v>137</v>
       </c>
       <c r="D142" t="s">
-        <v>151</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G142" t="s">
         <v>33</v>
@@ -9484,7 +9468,7 @@
       <c r="H142" t="s">
         <v>137</v>
       </c>
-      <c r="K142" s="4" t="s">
+      <c r="K142" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L142" t="s">
@@ -9496,7 +9480,7 @@
       <c r="N142" t="s">
         <v>95</v>
       </c>
-      <c r="P142" s="4" t="s">
+      <c r="P142" s="3" t="s">
         <v>98</v>
       </c>
       <c r="Q142">
@@ -9526,10 +9510,10 @@
         <v>137</v>
       </c>
       <c r="D143" t="s">
-        <v>151</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G143" t="s">
         <v>33</v>
@@ -9537,7 +9521,7 @@
       <c r="H143" t="s">
         <v>137</v>
       </c>
-      <c r="K143" s="4" t="s">
+      <c r="K143" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L143" t="s">
@@ -9546,7 +9530,7 @@
       <c r="M143" t="s">
         <v>100</v>
       </c>
-      <c r="P143" s="4" t="s">
+      <c r="P143" s="3" t="s">
         <v>101</v>
       </c>
       <c r="Q143">
@@ -9591,10 +9575,10 @@
         <v>140</v>
       </c>
       <c r="D144" t="s">
-        <v>151</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -9602,7 +9586,7 @@
       <c r="H144" t="s">
         <v>140</v>
       </c>
-      <c r="K144" s="4" t="s">
+      <c r="K144" s="3" t="s">
         <v>141</v>
       </c>
       <c r="L144" t="s">
@@ -9614,7 +9598,7 @@
       <c r="N144" t="s">
         <v>47</v>
       </c>
-      <c r="P144" s="4" t="s">
+      <c r="P144" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q144">
@@ -9639,7 +9623,7 @@
         <v>46</v>
       </c>
       <c r="AE144" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -9650,10 +9634,10 @@
         <v>140</v>
       </c>
       <c r="D145" t="s">
-        <v>151</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G145" t="s">
         <v>33</v>
@@ -9661,7 +9645,7 @@
       <c r="H145" t="s">
         <v>140</v>
       </c>
-      <c r="K145" s="4" t="s">
+      <c r="K145" s="3" t="s">
         <v>141</v>
       </c>
       <c r="L145" t="s">
@@ -9673,7 +9657,7 @@
       <c r="N145" t="s">
         <v>53</v>
       </c>
-      <c r="P145" s="4" t="s">
+      <c r="P145" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Q145">
@@ -9712,10 +9696,10 @@
         <v>140</v>
       </c>
       <c r="D146" t="s">
-        <v>151</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G146" t="s">
         <v>33</v>
@@ -9723,7 +9707,7 @@
       <c r="H146" t="s">
         <v>140</v>
       </c>
-      <c r="K146" s="4" t="s">
+      <c r="K146" s="3" t="s">
         <v>141</v>
       </c>
       <c r="L146" t="s">
@@ -9735,7 +9719,7 @@
       <c r="N146" t="s">
         <v>58</v>
       </c>
-      <c r="P146" s="4" t="s">
+      <c r="P146" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q146">
@@ -9757,7 +9741,7 @@
         <v>57</v>
       </c>
       <c r="AE146" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -9768,10 +9752,10 @@
         <v>140</v>
       </c>
       <c r="D147" t="s">
-        <v>151</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G147" t="s">
         <v>33</v>
@@ -9779,7 +9763,7 @@
       <c r="H147" t="s">
         <v>140</v>
       </c>
-      <c r="K147" s="4" t="s">
+      <c r="K147" s="3" t="s">
         <v>141</v>
       </c>
       <c r="L147" t="s">
@@ -9791,7 +9775,7 @@
       <c r="N147" t="s">
         <v>62</v>
       </c>
-      <c r="P147" s="4" t="s">
+      <c r="P147" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q147">
@@ -9819,7 +9803,7 @@
         <v>50</v>
       </c>
       <c r="AC147" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD147" t="s">
         <v>61</v>
@@ -9836,10 +9820,10 @@
         <v>140</v>
       </c>
       <c r="D148" t="s">
-        <v>151</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G148" t="s">
         <v>33</v>
@@ -9847,7 +9831,7 @@
       <c r="H148" t="s">
         <v>140</v>
       </c>
-      <c r="K148" s="4" t="s">
+      <c r="K148" s="3" t="s">
         <v>141</v>
       </c>
       <c r="L148" t="s">
@@ -9859,7 +9843,7 @@
       <c r="N148" t="s">
         <v>65</v>
       </c>
-      <c r="P148" s="4" t="s">
+      <c r="P148" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q148">
@@ -9904,10 +9888,10 @@
         <v>140</v>
       </c>
       <c r="D149" t="s">
-        <v>151</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G149" t="s">
         <v>33</v>
@@ -9915,7 +9899,7 @@
       <c r="H149" t="s">
         <v>140</v>
       </c>
-      <c r="K149" s="4" t="s">
+      <c r="K149" s="3" t="s">
         <v>141</v>
       </c>
       <c r="L149" t="s">
@@ -9924,7 +9908,7 @@
       <c r="M149" t="s">
         <v>67</v>
       </c>
-      <c r="P149" s="4" t="s">
+      <c r="P149" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Q149">
@@ -9954,10 +9938,10 @@
         <v>140</v>
       </c>
       <c r="D150" t="s">
-        <v>151</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G150" t="s">
         <v>33</v>
@@ -9965,7 +9949,7 @@
       <c r="H150" t="s">
         <v>140</v>
       </c>
-      <c r="K150" s="4" t="s">
+      <c r="K150" s="3" t="s">
         <v>141</v>
       </c>
       <c r="L150" t="s">
@@ -9977,7 +9961,7 @@
       <c r="N150" t="s">
         <v>71</v>
       </c>
-      <c r="P150" s="4" t="s">
+      <c r="P150" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q150">
@@ -10022,10 +10006,10 @@
         <v>140</v>
       </c>
       <c r="D151" t="s">
-        <v>151</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G151" t="s">
         <v>33</v>
@@ -10033,7 +10017,7 @@
       <c r="H151" t="s">
         <v>140</v>
       </c>
-      <c r="K151" s="4" t="s">
+      <c r="K151" s="3" t="s">
         <v>141</v>
       </c>
       <c r="L151" t="s">
@@ -10045,7 +10029,7 @@
       <c r="N151" t="s">
         <v>78</v>
       </c>
-      <c r="P151" s="4" t="s">
+      <c r="P151" s="3" t="s">
         <v>79</v>
       </c>
       <c r="Q151">
@@ -10090,10 +10074,10 @@
         <v>140</v>
       </c>
       <c r="D152" t="s">
-        <v>151</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G152" t="s">
         <v>33</v>
@@ -10101,7 +10085,7 @@
       <c r="H152" t="s">
         <v>140</v>
       </c>
-      <c r="K152" s="4" t="s">
+      <c r="K152" s="3" t="s">
         <v>141</v>
       </c>
       <c r="L152" t="s">
@@ -10110,7 +10094,7 @@
       <c r="M152" t="s">
         <v>84</v>
       </c>
-      <c r="P152" s="4" t="s">
+      <c r="P152" s="3" t="s">
         <v>85</v>
       </c>
       <c r="Q152">
@@ -10140,10 +10124,10 @@
         <v>140</v>
       </c>
       <c r="D153" t="s">
-        <v>151</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G153" t="s">
         <v>33</v>
@@ -10151,7 +10135,7 @@
       <c r="H153" t="s">
         <v>140</v>
       </c>
-      <c r="K153" s="4" t="s">
+      <c r="K153" s="3" t="s">
         <v>141</v>
       </c>
       <c r="L153" t="s">
@@ -10163,7 +10147,7 @@
       <c r="N153" t="s">
         <v>88</v>
       </c>
-      <c r="P153" s="4" t="s">
+      <c r="P153" s="3" t="s">
         <v>89</v>
       </c>
       <c r="Q153">
@@ -10193,10 +10177,10 @@
         <v>140</v>
       </c>
       <c r="D154" t="s">
-        <v>151</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G154" t="s">
         <v>33</v>
@@ -10204,7 +10188,7 @@
       <c r="H154" t="s">
         <v>140</v>
       </c>
-      <c r="K154" s="4" t="s">
+      <c r="K154" s="3" t="s">
         <v>141</v>
       </c>
       <c r="L154" t="s">
@@ -10213,7 +10197,7 @@
       <c r="M154" t="s">
         <v>91</v>
       </c>
-      <c r="P154" s="4" t="s">
+      <c r="P154" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q154">
@@ -10258,10 +10242,10 @@
         <v>140</v>
       </c>
       <c r="D155" t="s">
-        <v>151</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G155" t="s">
         <v>33</v>
@@ -10269,7 +10253,7 @@
       <c r="H155" t="s">
         <v>140</v>
       </c>
-      <c r="K155" s="4" t="s">
+      <c r="K155" s="3" t="s">
         <v>141</v>
       </c>
       <c r="L155" t="s">
@@ -10281,7 +10265,7 @@
       <c r="N155" t="s">
         <v>95</v>
       </c>
-      <c r="P155" s="4" t="s">
+      <c r="P155" s="3" t="s">
         <v>96</v>
       </c>
       <c r="Q155">
@@ -10311,10 +10295,10 @@
         <v>140</v>
       </c>
       <c r="D156" t="s">
-        <v>151</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G156" t="s">
         <v>33</v>
@@ -10322,7 +10306,7 @@
       <c r="H156" t="s">
         <v>140</v>
       </c>
-      <c r="K156" s="4" t="s">
+      <c r="K156" s="3" t="s">
         <v>141</v>
       </c>
       <c r="L156" t="s">
@@ -10334,7 +10318,7 @@
       <c r="N156" t="s">
         <v>95</v>
       </c>
-      <c r="P156" s="4" t="s">
+      <c r="P156" s="3" t="s">
         <v>98</v>
       </c>
       <c r="Q156">
@@ -10364,10 +10348,10 @@
         <v>140</v>
       </c>
       <c r="D157" t="s">
-        <v>151</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G157" t="s">
         <v>33</v>
@@ -10375,7 +10359,7 @@
       <c r="H157" t="s">
         <v>140</v>
       </c>
-      <c r="K157" s="4" t="s">
+      <c r="K157" s="3" t="s">
         <v>141</v>
       </c>
       <c r="L157" t="s">
@@ -10384,7 +10368,7 @@
       <c r="M157" t="s">
         <v>100</v>
       </c>
-      <c r="P157" s="4" t="s">
+      <c r="P157" s="3" t="s">
         <v>101</v>
       </c>
       <c r="Q157">
@@ -10429,10 +10413,10 @@
         <v>147</v>
       </c>
       <c r="D158" t="s">
-        <v>151</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G158" t="s">
         <v>33</v>
@@ -10440,7 +10424,7 @@
       <c r="H158" t="s">
         <v>147</v>
       </c>
-      <c r="K158" s="4" t="s">
+      <c r="K158" s="3" t="s">
         <v>148</v>
       </c>
       <c r="L158" t="s">
@@ -10452,7 +10436,7 @@
       <c r="N158" t="s">
         <v>47</v>
       </c>
-      <c r="P158" s="4" t="s">
+      <c r="P158" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q158">
@@ -10477,7 +10461,7 @@
         <v>46</v>
       </c>
       <c r="AE158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -10488,10 +10472,10 @@
         <v>147</v>
       </c>
       <c r="D159" t="s">
-        <v>151</v>
-      </c>
-      <c r="E159" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G159" t="s">
         <v>33</v>
@@ -10499,7 +10483,7 @@
       <c r="H159" t="s">
         <v>147</v>
       </c>
-      <c r="K159" s="4" t="s">
+      <c r="K159" s="3" t="s">
         <v>148</v>
       </c>
       <c r="L159" t="s">
@@ -10511,7 +10495,7 @@
       <c r="N159" t="s">
         <v>53</v>
       </c>
-      <c r="P159" s="4" t="s">
+      <c r="P159" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Q159">
@@ -10541,10 +10525,10 @@
         <v>147</v>
       </c>
       <c r="D160" t="s">
-        <v>151</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G160" t="s">
         <v>33</v>
@@ -10552,7 +10536,7 @@
       <c r="H160" t="s">
         <v>147</v>
       </c>
-      <c r="K160" s="4" t="s">
+      <c r="K160" s="3" t="s">
         <v>148</v>
       </c>
       <c r="L160" t="s">
@@ -10564,7 +10548,7 @@
       <c r="N160" t="s">
         <v>58</v>
       </c>
-      <c r="P160" s="4" t="s">
+      <c r="P160" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q160">
@@ -10586,7 +10570,7 @@
         <v>57</v>
       </c>
       <c r="AE160" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -10597,10 +10581,10 @@
         <v>147</v>
       </c>
       <c r="D161" t="s">
-        <v>151</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -10608,7 +10592,7 @@
       <c r="H161" t="s">
         <v>147</v>
       </c>
-      <c r="K161" s="4" t="s">
+      <c r="K161" s="3" t="s">
         <v>148</v>
       </c>
       <c r="L161" t="s">
@@ -10620,7 +10604,7 @@
       <c r="N161" t="s">
         <v>62</v>
       </c>
-      <c r="P161" s="4" t="s">
+      <c r="P161" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q161">
@@ -10648,7 +10632,7 @@
         <v>50</v>
       </c>
       <c r="AC161" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD161" t="s">
         <v>61</v>
@@ -10665,10 +10649,10 @@
         <v>147</v>
       </c>
       <c r="D162" t="s">
-        <v>151</v>
-      </c>
-      <c r="E162" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G162" t="s">
         <v>33</v>
@@ -10676,7 +10660,7 @@
       <c r="H162" t="s">
         <v>147</v>
       </c>
-      <c r="K162" s="4" t="s">
+      <c r="K162" s="3" t="s">
         <v>148</v>
       </c>
       <c r="L162" t="s">
@@ -10688,7 +10672,7 @@
       <c r="N162" t="s">
         <v>65</v>
       </c>
-      <c r="P162" s="4" t="s">
+      <c r="P162" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q162">
@@ -10733,10 +10717,10 @@
         <v>147</v>
       </c>
       <c r="D163" t="s">
-        <v>151</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G163" t="s">
         <v>33</v>
@@ -10744,7 +10728,7 @@
       <c r="H163" t="s">
         <v>147</v>
       </c>
-      <c r="K163" s="4" t="s">
+      <c r="K163" s="3" t="s">
         <v>148</v>
       </c>
       <c r="L163" t="s">
@@ -10753,7 +10737,7 @@
       <c r="M163" t="s">
         <v>67</v>
       </c>
-      <c r="P163" s="4" t="s">
+      <c r="P163" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Q163">
@@ -10783,10 +10767,10 @@
         <v>147</v>
       </c>
       <c r="D164" t="s">
-        <v>151</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G164" t="s">
         <v>33</v>
@@ -10794,7 +10778,7 @@
       <c r="H164" t="s">
         <v>147</v>
       </c>
-      <c r="K164" s="4" t="s">
+      <c r="K164" s="3" t="s">
         <v>148</v>
       </c>
       <c r="L164" t="s">
@@ -10806,7 +10790,7 @@
       <c r="N164" t="s">
         <v>71</v>
       </c>
-      <c r="P164" s="4" t="s">
+      <c r="P164" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q164">
@@ -10842,10 +10826,10 @@
         <v>147</v>
       </c>
       <c r="D165" t="s">
-        <v>151</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G165" t="s">
         <v>33</v>
@@ -10853,7 +10837,7 @@
       <c r="H165" t="s">
         <v>147</v>
       </c>
-      <c r="K165" s="4" t="s">
+      <c r="K165" s="3" t="s">
         <v>148</v>
       </c>
       <c r="L165" t="s">
@@ -10865,7 +10849,7 @@
       <c r="N165" t="s">
         <v>78</v>
       </c>
-      <c r="P165" s="4" t="s">
+      <c r="P165" s="3" t="s">
         <v>79</v>
       </c>
       <c r="Q165">
@@ -10910,10 +10894,10 @@
         <v>147</v>
       </c>
       <c r="D166" t="s">
-        <v>151</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G166" t="s">
         <v>33</v>
@@ -10921,7 +10905,7 @@
       <c r="H166" t="s">
         <v>147</v>
       </c>
-      <c r="K166" s="4" t="s">
+      <c r="K166" s="3" t="s">
         <v>148</v>
       </c>
       <c r="L166" t="s">
@@ -10930,7 +10914,7 @@
       <c r="M166" t="s">
         <v>84</v>
       </c>
-      <c r="P166" s="4" t="s">
+      <c r="P166" s="3" t="s">
         <v>85</v>
       </c>
       <c r="Q166">
@@ -10960,10 +10944,10 @@
         <v>147</v>
       </c>
       <c r="D167" t="s">
-        <v>151</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G167" t="s">
         <v>33</v>
@@ -10971,7 +10955,7 @@
       <c r="H167" t="s">
         <v>147</v>
       </c>
-      <c r="K167" s="4" t="s">
+      <c r="K167" s="3" t="s">
         <v>148</v>
       </c>
       <c r="L167" t="s">
@@ -10983,7 +10967,7 @@
       <c r="N167" t="s">
         <v>88</v>
       </c>
-      <c r="P167" s="4" t="s">
+      <c r="P167" s="3" t="s">
         <v>89</v>
       </c>
       <c r="Q167">
@@ -11013,10 +10997,10 @@
         <v>147</v>
       </c>
       <c r="D168" t="s">
-        <v>151</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G168" t="s">
         <v>33</v>
@@ -11024,7 +11008,7 @@
       <c r="H168" t="s">
         <v>147</v>
       </c>
-      <c r="K168" s="4" t="s">
+      <c r="K168" s="3" t="s">
         <v>148</v>
       </c>
       <c r="L168" t="s">
@@ -11033,7 +11017,7 @@
       <c r="M168" t="s">
         <v>91</v>
       </c>
-      <c r="P168" s="4" t="s">
+      <c r="P168" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q168">
@@ -11078,10 +11062,10 @@
         <v>147</v>
       </c>
       <c r="D169" t="s">
-        <v>151</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G169" t="s">
         <v>33</v>
@@ -11089,7 +11073,7 @@
       <c r="H169" t="s">
         <v>147</v>
       </c>
-      <c r="K169" s="4" t="s">
+      <c r="K169" s="3" t="s">
         <v>148</v>
       </c>
       <c r="L169" t="s">
@@ -11101,7 +11085,7 @@
       <c r="N169" t="s">
         <v>95</v>
       </c>
-      <c r="P169" s="4" t="s">
+      <c r="P169" s="3" t="s">
         <v>96</v>
       </c>
       <c r="Q169">
@@ -11131,10 +11115,10 @@
         <v>147</v>
       </c>
       <c r="D170" t="s">
-        <v>151</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G170" t="s">
         <v>33</v>
@@ -11142,7 +11126,7 @@
       <c r="H170" t="s">
         <v>147</v>
       </c>
-      <c r="K170" s="4" t="s">
+      <c r="K170" s="3" t="s">
         <v>148</v>
       </c>
       <c r="L170" t="s">
@@ -11154,7 +11138,7 @@
       <c r="N170" t="s">
         <v>95</v>
       </c>
-      <c r="P170" s="4" t="s">
+      <c r="P170" s="3" t="s">
         <v>98</v>
       </c>
       <c r="Q170">
@@ -11184,10 +11168,10 @@
         <v>147</v>
       </c>
       <c r="D171" t="s">
-        <v>151</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G171" t="s">
         <v>33</v>
@@ -11195,7 +11179,7 @@
       <c r="H171" t="s">
         <v>147</v>
       </c>
-      <c r="K171" s="4" t="s">
+      <c r="K171" s="3" t="s">
         <v>148</v>
       </c>
       <c r="L171" t="s">
@@ -11204,7 +11188,7 @@
       <c r="M171" t="s">
         <v>100</v>
       </c>
-      <c r="P171" s="4" t="s">
+      <c r="P171" s="3" t="s">
         <v>101</v>
       </c>
       <c r="Q171">
@@ -11242,26 +11226,26 @@
       </c>
     </row>
     <row r="172" spans="2:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="B172" s="2" t="s">
-        <v>150</v>
+      <c r="B172" t="s">
+        <v>210</v>
       </c>
       <c r="D172" t="s">
-        <v>151</v>
-      </c>
-      <c r="E172" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G172" t="s">
         <v>33</v>
       </c>
       <c r="H172" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J172" t="s">
-        <v>174</v>
-      </c>
-      <c r="K172" s="4" t="s">
         <v>173</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="L172" t="s">
         <v>34</v>
@@ -11269,11 +11253,11 @@
       <c r="M172" t="s">
         <v>34</v>
       </c>
-      <c r="N172" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="O172" s="4" t="s">
-        <v>175</v>
+      <c r="N172" t="s">
+        <v>210</v>
+      </c>
+      <c r="O172" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="Q172">
         <v>1</v>
@@ -11314,21 +11298,21 @@
         <v>103</v>
       </c>
       <c r="D173" t="s">
-        <v>151</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G173" t="s">
         <v>33</v>
       </c>
       <c r="H173" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J173" t="s">
-        <v>174</v>
-      </c>
-      <c r="K173" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K173" s="3" t="s">
         <v>104</v>
       </c>
       <c r="L173" t="s">
@@ -11340,7 +11324,7 @@
       <c r="N173" t="s">
         <v>47</v>
       </c>
-      <c r="P173" s="4" t="s">
+      <c r="P173" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q173">
@@ -11365,7 +11349,7 @@
         <v>46</v>
       </c>
       <c r="AE173" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="174" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -11376,21 +11360,21 @@
         <v>103</v>
       </c>
       <c r="D174" t="s">
-        <v>151</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
       </c>
       <c r="H174" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J174" t="s">
-        <v>174</v>
-      </c>
-      <c r="K174" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K174" s="3" t="s">
         <v>104</v>
       </c>
       <c r="L174" t="s">
@@ -11402,7 +11386,7 @@
       <c r="N174" t="s">
         <v>58</v>
       </c>
-      <c r="P174" s="4" t="s">
+      <c r="P174" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q174">
@@ -11424,7 +11408,7 @@
         <v>57</v>
       </c>
       <c r="AE174" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="175" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -11435,21 +11419,21 @@
         <v>103</v>
       </c>
       <c r="D175" t="s">
-        <v>151</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G175" t="s">
         <v>33</v>
       </c>
       <c r="H175" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J175" t="s">
-        <v>174</v>
-      </c>
-      <c r="K175" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K175" s="3" t="s">
         <v>104</v>
       </c>
       <c r="L175" t="s">
@@ -11461,7 +11445,7 @@
       <c r="N175" t="s">
         <v>62</v>
       </c>
-      <c r="P175" s="4" t="s">
+      <c r="P175" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q175">
@@ -11489,7 +11473,7 @@
         <v>50</v>
       </c>
       <c r="AC175" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD175" t="s">
         <v>61</v>
@@ -11506,21 +11490,21 @@
         <v>103</v>
       </c>
       <c r="D176" t="s">
-        <v>151</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G176" t="s">
         <v>33</v>
       </c>
       <c r="H176" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J176" t="s">
-        <v>174</v>
-      </c>
-      <c r="K176" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K176" s="3" t="s">
         <v>104</v>
       </c>
       <c r="L176" t="s">
@@ -11577,21 +11561,21 @@
         <v>103</v>
       </c>
       <c r="D177" t="s">
-        <v>151</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G177" t="s">
         <v>33</v>
       </c>
       <c r="H177" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J177" t="s">
-        <v>174</v>
-      </c>
-      <c r="K177" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K177" s="3" t="s">
         <v>104</v>
       </c>
       <c r="L177" t="s">
@@ -11600,8 +11584,8 @@
       <c r="M177" t="s">
         <v>67</v>
       </c>
-      <c r="P177" s="7" t="s">
-        <v>198</v>
+      <c r="P177" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -11630,21 +11614,21 @@
         <v>103</v>
       </c>
       <c r="D178" t="s">
-        <v>151</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G178" t="s">
         <v>33</v>
       </c>
       <c r="H178" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J178" t="s">
-        <v>174</v>
-      </c>
-      <c r="K178" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K178" s="3" t="s">
         <v>104</v>
       </c>
       <c r="L178" t="s">
@@ -11656,7 +11640,7 @@
       <c r="N178" t="s">
         <v>71</v>
       </c>
-      <c r="P178" s="4" t="s">
+      <c r="P178" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q178">
@@ -11701,21 +11685,21 @@
         <v>129</v>
       </c>
       <c r="D179" t="s">
-        <v>151</v>
-      </c>
-      <c r="E179" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G179" t="s">
         <v>33</v>
       </c>
       <c r="H179" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J179" t="s">
-        <v>174</v>
-      </c>
-      <c r="K179" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K179" s="3" t="s">
         <v>130</v>
       </c>
       <c r="L179" t="s">
@@ -11727,7 +11711,7 @@
       <c r="N179" t="s">
         <v>47</v>
       </c>
-      <c r="P179" s="4" t="s">
+      <c r="P179" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q179">
@@ -11752,7 +11736,7 @@
         <v>46</v>
       </c>
       <c r="AE179" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="180" spans="2:31" ht="45" x14ac:dyDescent="0.25">
@@ -11763,21 +11747,21 @@
         <v>129</v>
       </c>
       <c r="D180" t="s">
-        <v>151</v>
-      </c>
-      <c r="E180" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G180" t="s">
         <v>33</v>
       </c>
       <c r="H180" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J180" t="s">
-        <v>174</v>
-      </c>
-      <c r="K180" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K180" s="3" t="s">
         <v>130</v>
       </c>
       <c r="L180" t="s">
@@ -11789,7 +11773,7 @@
       <c r="N180" t="s">
         <v>58</v>
       </c>
-      <c r="P180" s="4" t="s">
+      <c r="P180" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q180">
@@ -11811,7 +11795,7 @@
         <v>57</v>
       </c>
       <c r="AE180" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="181" spans="2:31" ht="45" x14ac:dyDescent="0.25">
@@ -11822,21 +11806,21 @@
         <v>129</v>
       </c>
       <c r="D181" t="s">
-        <v>151</v>
-      </c>
-      <c r="E181" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G181" t="s">
         <v>33</v>
       </c>
       <c r="H181" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J181" t="s">
-        <v>174</v>
-      </c>
-      <c r="K181" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K181" s="3" t="s">
         <v>130</v>
       </c>
       <c r="L181" t="s">
@@ -11848,7 +11832,7 @@
       <c r="N181" t="s">
         <v>62</v>
       </c>
-      <c r="P181" s="4" t="s">
+      <c r="P181" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q181">
@@ -11876,7 +11860,7 @@
         <v>50</v>
       </c>
       <c r="AC181" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD181" t="s">
         <v>61</v>
@@ -11893,21 +11877,21 @@
         <v>129</v>
       </c>
       <c r="D182" t="s">
-        <v>151</v>
-      </c>
-      <c r="E182" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G182" t="s">
         <v>33</v>
       </c>
       <c r="H182" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J182" t="s">
-        <v>174</v>
-      </c>
-      <c r="K182" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K182" s="3" t="s">
         <v>130</v>
       </c>
       <c r="L182" t="s">
@@ -11919,7 +11903,7 @@
       <c r="N182" t="s">
         <v>65</v>
       </c>
-      <c r="P182" s="4" t="s">
+      <c r="P182" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q182">
@@ -11964,21 +11948,21 @@
         <v>129</v>
       </c>
       <c r="D183" t="s">
-        <v>151</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G183" t="s">
         <v>33</v>
       </c>
       <c r="H183" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J183" t="s">
-        <v>174</v>
-      </c>
-      <c r="K183" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K183" s="3" t="s">
         <v>130</v>
       </c>
       <c r="L183" t="s">
@@ -11987,8 +11971,8 @@
       <c r="M183" t="s">
         <v>67</v>
       </c>
-      <c r="P183" s="7" t="s">
-        <v>177</v>
+      <c r="P183" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -12017,21 +12001,21 @@
         <v>129</v>
       </c>
       <c r="D184" t="s">
-        <v>151</v>
-      </c>
-      <c r="E184" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G184" t="s">
         <v>33</v>
       </c>
       <c r="H184" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J184" t="s">
-        <v>174</v>
-      </c>
-      <c r="K184" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K184" s="3" t="s">
         <v>130</v>
       </c>
       <c r="L184" t="s">
@@ -12043,7 +12027,7 @@
       <c r="N184" t="s">
         <v>71</v>
       </c>
-      <c r="P184" s="4" t="s">
+      <c r="P184" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q184">
@@ -12065,16 +12049,16 @@
         <v>74</v>
       </c>
       <c r="AB184" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC184" t="s">
         <v>181</v>
-      </c>
-      <c r="AC184" t="s">
-        <v>182</v>
       </c>
       <c r="AD184" t="s">
         <v>70</v>
       </c>
       <c r="AE184" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="185" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -12085,21 +12069,21 @@
         <v>147</v>
       </c>
       <c r="D185" t="s">
-        <v>151</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G185" t="s">
         <v>33</v>
       </c>
       <c r="H185" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J185" t="s">
-        <v>174</v>
-      </c>
-      <c r="K185" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K185" s="3" t="s">
         <v>148</v>
       </c>
       <c r="L185" t="s">
@@ -12111,7 +12095,7 @@
       <c r="N185" t="s">
         <v>47</v>
       </c>
-      <c r="P185" s="4" t="s">
+      <c r="P185" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q185">
@@ -12136,7 +12120,7 @@
         <v>46</v>
       </c>
       <c r="AE185" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="186" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -12147,21 +12131,21 @@
         <v>147</v>
       </c>
       <c r="D186" t="s">
-        <v>151</v>
-      </c>
-      <c r="E186" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G186" t="s">
         <v>33</v>
       </c>
       <c r="H186" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J186" t="s">
-        <v>174</v>
-      </c>
-      <c r="K186" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K186" s="3" t="s">
         <v>148</v>
       </c>
       <c r="L186" t="s">
@@ -12173,7 +12157,7 @@
       <c r="N186" t="s">
         <v>58</v>
       </c>
-      <c r="P186" s="4" t="s">
+      <c r="P186" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q186">
@@ -12195,7 +12179,7 @@
         <v>57</v>
       </c>
       <c r="AE186" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="187" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -12206,21 +12190,21 @@
         <v>147</v>
       </c>
       <c r="D187" t="s">
-        <v>151</v>
-      </c>
-      <c r="E187" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G187" t="s">
         <v>33</v>
       </c>
       <c r="H187" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J187" t="s">
-        <v>174</v>
-      </c>
-      <c r="K187" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K187" s="3" t="s">
         <v>148</v>
       </c>
       <c r="L187" t="s">
@@ -12232,7 +12216,7 @@
       <c r="N187" t="s">
         <v>62</v>
       </c>
-      <c r="P187" s="4" t="s">
+      <c r="P187" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q187">
@@ -12260,7 +12244,7 @@
         <v>50</v>
       </c>
       <c r="AC187" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD187" t="s">
         <v>61</v>
@@ -12277,21 +12261,21 @@
         <v>147</v>
       </c>
       <c r="D188" t="s">
-        <v>151</v>
-      </c>
-      <c r="E188" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G188" t="s">
         <v>33</v>
       </c>
       <c r="H188" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J188" t="s">
-        <v>174</v>
-      </c>
-      <c r="K188" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K188" s="3" t="s">
         <v>148</v>
       </c>
       <c r="L188" t="s">
@@ -12303,7 +12287,7 @@
       <c r="N188" t="s">
         <v>65</v>
       </c>
-      <c r="P188" s="4" t="s">
+      <c r="P188" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q188">
@@ -12348,21 +12332,21 @@
         <v>147</v>
       </c>
       <c r="D189" t="s">
-        <v>151</v>
-      </c>
-      <c r="E189" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G189" t="s">
         <v>33</v>
       </c>
       <c r="H189" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J189" t="s">
-        <v>174</v>
-      </c>
-      <c r="K189" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K189" s="3" t="s">
         <v>148</v>
       </c>
       <c r="L189" t="s">
@@ -12371,8 +12355,8 @@
       <c r="M189" t="s">
         <v>67</v>
       </c>
-      <c r="P189" s="7" t="s">
-        <v>199</v>
+      <c r="P189" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="Q189">
         <v>6</v>
@@ -12401,21 +12385,21 @@
         <v>147</v>
       </c>
       <c r="D190" t="s">
-        <v>151</v>
-      </c>
-      <c r="E190" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G190" t="s">
         <v>33</v>
       </c>
       <c r="H190" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J190" t="s">
-        <v>174</v>
-      </c>
-      <c r="K190" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K190" s="3" t="s">
         <v>148</v>
       </c>
       <c r="L190" t="s">
@@ -12427,7 +12411,7 @@
       <c r="N190" t="s">
         <v>71</v>
       </c>
-      <c r="P190" s="4" t="s">
+      <c r="P190" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q190">
@@ -12449,16 +12433,16 @@
         <v>74</v>
       </c>
       <c r="AB190" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC190" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="AC190" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="AD190" t="s">
         <v>70</v>
       </c>
       <c r="AE190" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="191" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -12469,21 +12453,21 @@
         <v>114</v>
       </c>
       <c r="D191" t="s">
-        <v>151</v>
-      </c>
-      <c r="E191" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G191" t="s">
         <v>33</v>
       </c>
       <c r="H191" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J191" t="s">
-        <v>174</v>
-      </c>
-      <c r="K191" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K191" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L191" t="s">
@@ -12495,7 +12479,7 @@
       <c r="N191" t="s">
         <v>47</v>
       </c>
-      <c r="P191" s="4" t="s">
+      <c r="P191" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q191">
@@ -12520,7 +12504,7 @@
         <v>46</v>
       </c>
       <c r="AE191" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -12531,21 +12515,21 @@
         <v>114</v>
       </c>
       <c r="D192" t="s">
-        <v>151</v>
-      </c>
-      <c r="E192" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G192" t="s">
         <v>33</v>
       </c>
       <c r="H192" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J192" t="s">
-        <v>174</v>
-      </c>
-      <c r="K192" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K192" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L192" t="s">
@@ -12557,7 +12541,7 @@
       <c r="N192" t="s">
         <v>58</v>
       </c>
-      <c r="P192" s="4" t="s">
+      <c r="P192" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q192">
@@ -12579,7 +12563,7 @@
         <v>57</v>
       </c>
       <c r="AE192" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="193" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -12590,21 +12574,21 @@
         <v>114</v>
       </c>
       <c r="D193" t="s">
-        <v>151</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G193" t="s">
         <v>33</v>
       </c>
       <c r="H193" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J193" t="s">
-        <v>174</v>
-      </c>
-      <c r="K193" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K193" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L193" t="s">
@@ -12616,7 +12600,7 @@
       <c r="N193" t="s">
         <v>62</v>
       </c>
-      <c r="P193" s="4" t="s">
+      <c r="P193" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q193">
@@ -12644,7 +12628,7 @@
         <v>50</v>
       </c>
       <c r="AC193" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD193" t="s">
         <v>61</v>
@@ -12661,21 +12645,21 @@
         <v>114</v>
       </c>
       <c r="D194" t="s">
-        <v>151</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G194" t="s">
         <v>33</v>
       </c>
       <c r="H194" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J194" t="s">
-        <v>174</v>
-      </c>
-      <c r="K194" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K194" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L194" t="s">
@@ -12687,7 +12671,7 @@
       <c r="N194" t="s">
         <v>65</v>
       </c>
-      <c r="P194" s="4" t="s">
+      <c r="P194" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q194">
@@ -12732,21 +12716,21 @@
         <v>114</v>
       </c>
       <c r="D195" t="s">
-        <v>151</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G195" t="s">
         <v>33</v>
       </c>
       <c r="H195" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J195" t="s">
-        <v>174</v>
-      </c>
-      <c r="K195" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K195" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L195" t="s">
@@ -12755,8 +12739,8 @@
       <c r="M195" t="s">
         <v>67</v>
       </c>
-      <c r="P195" s="4" t="s">
-        <v>190</v>
+      <c r="P195" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="Q195">
         <v>6</v>
@@ -12785,21 +12769,21 @@
         <v>114</v>
       </c>
       <c r="D196" t="s">
-        <v>151</v>
-      </c>
-      <c r="E196" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G196" t="s">
         <v>33</v>
       </c>
       <c r="H196" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J196" t="s">
-        <v>174</v>
-      </c>
-      <c r="K196" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K196" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L196" t="s">
@@ -12811,7 +12795,7 @@
       <c r="N196" t="s">
         <v>71</v>
       </c>
-      <c r="P196" s="4" t="s">
+      <c r="P196" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q196">
@@ -12832,17 +12816,17 @@
       <c r="X196" t="s">
         <v>74</v>
       </c>
-      <c r="AB196" s="8" t="s">
+      <c r="AB196" s="6" t="s">
         <v>117</v>
       </c>
       <c r="AC196" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AD196" t="s">
         <v>70</v>
       </c>
       <c r="AE196" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="197" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -12853,21 +12837,21 @@
         <v>114</v>
       </c>
       <c r="D197" t="s">
-        <v>151</v>
-      </c>
-      <c r="E197" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G197" t="s">
         <v>33</v>
       </c>
       <c r="H197" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J197" t="s">
-        <v>174</v>
-      </c>
-      <c r="K197" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K197" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L197" t="s">
@@ -12879,7 +12863,7 @@
       <c r="N197" t="s">
         <v>88</v>
       </c>
-      <c r="P197" s="4" t="s">
+      <c r="P197" s="3" t="s">
         <v>89</v>
       </c>
       <c r="Q197">
@@ -12909,21 +12893,21 @@
         <v>114</v>
       </c>
       <c r="D198" t="s">
-        <v>151</v>
-      </c>
-      <c r="E198" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G198" t="s">
         <v>33</v>
       </c>
       <c r="H198" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J198" t="s">
-        <v>174</v>
-      </c>
-      <c r="K198" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K198" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L198" t="s">
@@ -12932,7 +12916,7 @@
       <c r="M198" t="s">
         <v>91</v>
       </c>
-      <c r="P198" s="4" t="s">
+      <c r="P198" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q198">
@@ -12977,21 +12961,21 @@
         <v>114</v>
       </c>
       <c r="D199" t="s">
-        <v>151</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G199" t="s">
         <v>33</v>
       </c>
       <c r="H199" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J199" t="s">
-        <v>174</v>
-      </c>
-      <c r="K199" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K199" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L199" t="s">
@@ -13003,7 +12987,7 @@
       <c r="N199" t="s">
         <v>95</v>
       </c>
-      <c r="P199" s="4" t="s">
+      <c r="P199" s="3" t="s">
         <v>96</v>
       </c>
       <c r="Q199">
@@ -13033,21 +13017,21 @@
         <v>114</v>
       </c>
       <c r="D200" t="s">
-        <v>151</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G200" t="s">
         <v>33</v>
       </c>
       <c r="H200" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J200" t="s">
-        <v>174</v>
-      </c>
-      <c r="K200" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K200" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L200" t="s">
@@ -13056,7 +13040,7 @@
       <c r="M200" t="s">
         <v>100</v>
       </c>
-      <c r="P200" s="4" t="s">
+      <c r="P200" s="3" t="s">
         <v>101</v>
       </c>
       <c r="Q200">
@@ -13101,21 +13085,21 @@
         <v>120</v>
       </c>
       <c r="D201" t="s">
-        <v>151</v>
-      </c>
-      <c r="E201" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G201" t="s">
         <v>33</v>
       </c>
       <c r="H201" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J201" t="s">
-        <v>174</v>
-      </c>
-      <c r="K201" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K201" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L201" t="s">
@@ -13127,7 +13111,7 @@
       <c r="N201" t="s">
         <v>47</v>
       </c>
-      <c r="P201" s="4" t="s">
+      <c r="P201" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q201">
@@ -13152,7 +13136,7 @@
         <v>46</v>
       </c>
       <c r="AE201" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="202" spans="2:31" x14ac:dyDescent="0.25">
@@ -13163,21 +13147,21 @@
         <v>120</v>
       </c>
       <c r="D202" t="s">
-        <v>151</v>
-      </c>
-      <c r="E202" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G202" t="s">
         <v>33</v>
       </c>
       <c r="H202" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J202" t="s">
-        <v>174</v>
-      </c>
-      <c r="K202" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K202" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L202" t="s">
@@ -13189,7 +13173,7 @@
       <c r="N202" t="s">
         <v>58</v>
       </c>
-      <c r="P202" s="4" t="s">
+      <c r="P202" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q202">
@@ -13211,7 +13195,7 @@
         <v>57</v>
       </c>
       <c r="AE202" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="203" spans="2:31" x14ac:dyDescent="0.25">
@@ -13222,21 +13206,21 @@
         <v>120</v>
       </c>
       <c r="D203" t="s">
-        <v>151</v>
-      </c>
-      <c r="E203" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G203" t="s">
         <v>33</v>
       </c>
       <c r="H203" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J203" t="s">
-        <v>174</v>
-      </c>
-      <c r="K203" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K203" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L203" t="s">
@@ -13248,7 +13232,7 @@
       <c r="N203" t="s">
         <v>62</v>
       </c>
-      <c r="P203" s="4" t="s">
+      <c r="P203" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q203">
@@ -13276,7 +13260,7 @@
         <v>50</v>
       </c>
       <c r="AC203" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD203" t="s">
         <v>61</v>
@@ -13293,21 +13277,21 @@
         <v>120</v>
       </c>
       <c r="D204" t="s">
-        <v>151</v>
-      </c>
-      <c r="E204" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G204" t="s">
         <v>33</v>
       </c>
       <c r="H204" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J204" t="s">
-        <v>174</v>
-      </c>
-      <c r="K204" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K204" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L204" t="s">
@@ -13319,7 +13303,7 @@
       <c r="N204" t="s">
         <v>65</v>
       </c>
-      <c r="P204" s="4" t="s">
+      <c r="P204" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q204">
@@ -13364,21 +13348,21 @@
         <v>120</v>
       </c>
       <c r="D205" t="s">
-        <v>151</v>
-      </c>
-      <c r="E205" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G205" t="s">
         <v>33</v>
       </c>
       <c r="H205" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J205" t="s">
-        <v>174</v>
-      </c>
-      <c r="K205" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K205" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L205" t="s">
@@ -13387,8 +13371,8 @@
       <c r="M205" t="s">
         <v>67</v>
       </c>
-      <c r="P205" s="7" t="s">
-        <v>194</v>
+      <c r="P205" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="Q205">
         <v>6</v>
@@ -13417,21 +13401,21 @@
         <v>120</v>
       </c>
       <c r="D206" t="s">
-        <v>151</v>
-      </c>
-      <c r="E206" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
       </c>
       <c r="H206" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J206" t="s">
-        <v>174</v>
-      </c>
-      <c r="K206" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K206" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L206" t="s">
@@ -13443,7 +13427,7 @@
       <c r="N206" t="s">
         <v>71</v>
       </c>
-      <c r="P206" s="4" t="s">
+      <c r="P206" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q206">
@@ -13467,14 +13451,14 @@
       <c r="AB206" t="s">
         <v>122</v>
       </c>
-      <c r="AC206" s="8" t="s">
-        <v>192</v>
+      <c r="AC206" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="AD206" t="s">
         <v>70</v>
       </c>
       <c r="AE206" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="207" spans="2:31" x14ac:dyDescent="0.25">
@@ -13485,21 +13469,21 @@
         <v>120</v>
       </c>
       <c r="D207" t="s">
-        <v>151</v>
-      </c>
-      <c r="E207" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G207" t="s">
         <v>33</v>
       </c>
       <c r="H207" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J207" t="s">
-        <v>174</v>
-      </c>
-      <c r="K207" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K207" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L207" t="s">
@@ -13511,7 +13495,7 @@
       <c r="N207" t="s">
         <v>88</v>
       </c>
-      <c r="P207" s="4" t="s">
+      <c r="P207" s="3" t="s">
         <v>89</v>
       </c>
       <c r="Q207">
@@ -13541,21 +13525,21 @@
         <v>120</v>
       </c>
       <c r="D208" t="s">
-        <v>151</v>
-      </c>
-      <c r="E208" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G208" t="s">
         <v>33</v>
       </c>
       <c r="H208" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J208" t="s">
-        <v>174</v>
-      </c>
-      <c r="K208" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K208" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L208" t="s">
@@ -13564,7 +13548,7 @@
       <c r="M208" t="s">
         <v>91</v>
       </c>
-      <c r="P208" s="4" t="s">
+      <c r="P208" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q208">
@@ -13609,21 +13593,21 @@
         <v>120</v>
       </c>
       <c r="D209" t="s">
-        <v>151</v>
-      </c>
-      <c r="E209" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G209" t="s">
         <v>33</v>
       </c>
       <c r="H209" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J209" t="s">
-        <v>174</v>
-      </c>
-      <c r="K209" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K209" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L209" t="s">
@@ -13635,7 +13619,7 @@
       <c r="N209" t="s">
         <v>95</v>
       </c>
-      <c r="P209" s="4" t="s">
+      <c r="P209" s="3" t="s">
         <v>96</v>
       </c>
       <c r="Q209">
@@ -13665,21 +13649,21 @@
         <v>120</v>
       </c>
       <c r="D210" t="s">
-        <v>151</v>
-      </c>
-      <c r="E210" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G210" t="s">
         <v>33</v>
       </c>
       <c r="H210" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J210" t="s">
-        <v>174</v>
-      </c>
-      <c r="K210" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K210" s="3" t="s">
         <v>121</v>
       </c>
       <c r="L210" t="s">
@@ -13688,7 +13672,7 @@
       <c r="M210" t="s">
         <v>100</v>
       </c>
-      <c r="P210" s="4" t="s">
+      <c r="P210" s="3" t="s">
         <v>101</v>
       </c>
       <c r="Q210">
@@ -13733,21 +13717,21 @@
         <v>123</v>
       </c>
       <c r="D211" t="s">
-        <v>151</v>
-      </c>
-      <c r="E211" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G211" t="s">
         <v>33</v>
       </c>
       <c r="H211" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J211" t="s">
-        <v>174</v>
-      </c>
-      <c r="K211" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K211" s="3" t="s">
         <v>124</v>
       </c>
       <c r="L211" t="s">
@@ -13759,7 +13743,7 @@
       <c r="N211" t="s">
         <v>47</v>
       </c>
-      <c r="P211" s="4" t="s">
+      <c r="P211" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q211">
@@ -13784,7 +13768,7 @@
         <v>46</v>
       </c>
       <c r="AE211" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="212" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -13795,21 +13779,21 @@
         <v>123</v>
       </c>
       <c r="D212" t="s">
-        <v>151</v>
-      </c>
-      <c r="E212" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G212" t="s">
         <v>33</v>
       </c>
       <c r="H212" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J212" t="s">
-        <v>174</v>
-      </c>
-      <c r="K212" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K212" s="3" t="s">
         <v>124</v>
       </c>
       <c r="L212" t="s">
@@ -13821,7 +13805,7 @@
       <c r="N212" t="s">
         <v>58</v>
       </c>
-      <c r="P212" s="4" t="s">
+      <c r="P212" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q212">
@@ -13843,7 +13827,7 @@
         <v>57</v>
       </c>
       <c r="AE212" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="213" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -13854,21 +13838,21 @@
         <v>123</v>
       </c>
       <c r="D213" t="s">
-        <v>151</v>
-      </c>
-      <c r="E213" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G213" t="s">
         <v>33</v>
       </c>
       <c r="H213" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J213" t="s">
-        <v>174</v>
-      </c>
-      <c r="K213" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K213" s="3" t="s">
         <v>124</v>
       </c>
       <c r="L213" t="s">
@@ -13880,7 +13864,7 @@
       <c r="N213" t="s">
         <v>62</v>
       </c>
-      <c r="P213" s="4" t="s">
+      <c r="P213" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q213">
@@ -13908,7 +13892,7 @@
         <v>50</v>
       </c>
       <c r="AC213" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD213" t="s">
         <v>61</v>
@@ -13925,21 +13909,21 @@
         <v>123</v>
       </c>
       <c r="D214" t="s">
-        <v>151</v>
-      </c>
-      <c r="E214" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G214" t="s">
         <v>33</v>
       </c>
       <c r="H214" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J214" t="s">
-        <v>174</v>
-      </c>
-      <c r="K214" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K214" s="3" t="s">
         <v>124</v>
       </c>
       <c r="L214" t="s">
@@ -13951,7 +13935,7 @@
       <c r="N214" t="s">
         <v>65</v>
       </c>
-      <c r="P214" s="4" t="s">
+      <c r="P214" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q214">
@@ -13996,21 +13980,21 @@
         <v>123</v>
       </c>
       <c r="D215" t="s">
-        <v>151</v>
-      </c>
-      <c r="E215" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G215" t="s">
         <v>33</v>
       </c>
       <c r="H215" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J215" t="s">
-        <v>174</v>
-      </c>
-      <c r="K215" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K215" s="3" t="s">
         <v>124</v>
       </c>
       <c r="L215" t="s">
@@ -14019,8 +14003,8 @@
       <c r="M215" t="s">
         <v>67</v>
       </c>
-      <c r="P215" s="4" t="s">
-        <v>187</v>
+      <c r="P215" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -14049,21 +14033,21 @@
         <v>123</v>
       </c>
       <c r="D216" t="s">
-        <v>151</v>
-      </c>
-      <c r="E216" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G216" t="s">
         <v>33</v>
       </c>
       <c r="H216" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J216" t="s">
-        <v>174</v>
-      </c>
-      <c r="K216" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K216" s="3" t="s">
         <v>124</v>
       </c>
       <c r="L216" t="s">
@@ -14075,7 +14059,7 @@
       <c r="N216" t="s">
         <v>71</v>
       </c>
-      <c r="P216" s="4" t="s">
+      <c r="P216" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q216">
@@ -14097,16 +14081,16 @@
         <v>74</v>
       </c>
       <c r="AB216" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC216" t="s">
         <v>184</v>
-      </c>
-      <c r="AC216" t="s">
-        <v>185</v>
       </c>
       <c r="AD216" t="s">
         <v>70</v>
       </c>
       <c r="AE216" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="217" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -14117,21 +14101,21 @@
         <v>126</v>
       </c>
       <c r="D217" t="s">
-        <v>151</v>
-      </c>
-      <c r="E217" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G217" t="s">
         <v>33</v>
       </c>
       <c r="H217" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J217" t="s">
-        <v>174</v>
-      </c>
-      <c r="K217" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K217" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L217" t="s">
@@ -14143,7 +14127,7 @@
       <c r="N217" t="s">
         <v>47</v>
       </c>
-      <c r="P217" s="4" t="s">
+      <c r="P217" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q217">
@@ -14168,7 +14152,7 @@
         <v>46</v>
       </c>
       <c r="AE217" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="218" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -14179,21 +14163,21 @@
         <v>126</v>
       </c>
       <c r="D218" t="s">
-        <v>151</v>
-      </c>
-      <c r="E218" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G218" t="s">
         <v>33</v>
       </c>
       <c r="H218" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J218" t="s">
-        <v>174</v>
-      </c>
-      <c r="K218" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K218" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L218" t="s">
@@ -14205,7 +14189,7 @@
       <c r="N218" t="s">
         <v>58</v>
       </c>
-      <c r="P218" s="4" t="s">
+      <c r="P218" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q218">
@@ -14227,7 +14211,7 @@
         <v>57</v>
       </c>
       <c r="AE218" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="219" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -14238,21 +14222,21 @@
         <v>126</v>
       </c>
       <c r="D219" t="s">
-        <v>151</v>
-      </c>
-      <c r="E219" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G219" t="s">
         <v>33</v>
       </c>
       <c r="H219" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J219" t="s">
-        <v>174</v>
-      </c>
-      <c r="K219" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K219" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L219" t="s">
@@ -14264,7 +14248,7 @@
       <c r="N219" t="s">
         <v>62</v>
       </c>
-      <c r="P219" s="4" t="s">
+      <c r="P219" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q219">
@@ -14292,7 +14276,7 @@
         <v>50</v>
       </c>
       <c r="AC219" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD219" t="s">
         <v>61</v>
@@ -14309,21 +14293,21 @@
         <v>126</v>
       </c>
       <c r="D220" t="s">
-        <v>151</v>
-      </c>
-      <c r="E220" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G220" t="s">
         <v>33</v>
       </c>
       <c r="H220" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J220" t="s">
-        <v>174</v>
-      </c>
-      <c r="K220" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K220" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L220" t="s">
@@ -14335,7 +14319,7 @@
       <c r="N220" t="s">
         <v>65</v>
       </c>
-      <c r="P220" s="4" t="s">
+      <c r="P220" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q220">
@@ -14380,21 +14364,21 @@
         <v>126</v>
       </c>
       <c r="D221" t="s">
-        <v>151</v>
-      </c>
-      <c r="E221" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G221" t="s">
         <v>33</v>
       </c>
       <c r="H221" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J221" t="s">
-        <v>174</v>
-      </c>
-      <c r="K221" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K221" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L221" t="s">
@@ -14403,8 +14387,8 @@
       <c r="M221" t="s">
         <v>67</v>
       </c>
-      <c r="P221" s="4" t="s">
-        <v>188</v>
+      <c r="P221" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q221">
         <v>6</v>
@@ -14433,21 +14417,21 @@
         <v>126</v>
       </c>
       <c r="D222" t="s">
-        <v>151</v>
-      </c>
-      <c r="E222" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G222" t="s">
         <v>33</v>
       </c>
       <c r="H222" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J222" t="s">
-        <v>174</v>
-      </c>
-      <c r="K222" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K222" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L222" t="s">
@@ -14459,7 +14443,7 @@
       <c r="N222" t="s">
         <v>71</v>
       </c>
-      <c r="P222" s="4" t="s">
+      <c r="P222" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q222">
@@ -14481,16 +14465,16 @@
         <v>74</v>
       </c>
       <c r="AB222" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC222" t="s">
         <v>181</v>
-      </c>
-      <c r="AC222" t="s">
-        <v>182</v>
       </c>
       <c r="AD222" t="s">
         <v>70</v>
       </c>
       <c r="AE222" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="223" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -14501,21 +14485,21 @@
         <v>132</v>
       </c>
       <c r="D223" t="s">
-        <v>151</v>
-      </c>
-      <c r="E223" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G223" t="s">
         <v>33</v>
       </c>
       <c r="H223" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J223" t="s">
-        <v>174</v>
-      </c>
-      <c r="K223" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K223" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L223" t="s">
@@ -14527,7 +14511,7 @@
       <c r="N223" t="s">
         <v>47</v>
       </c>
-      <c r="P223" s="4" t="s">
+      <c r="P223" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q223">
@@ -14552,7 +14536,7 @@
         <v>46</v>
       </c>
       <c r="AE223" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="224" spans="2:31" x14ac:dyDescent="0.25">
@@ -14563,21 +14547,21 @@
         <v>132</v>
       </c>
       <c r="D224" t="s">
-        <v>151</v>
-      </c>
-      <c r="E224" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G224" t="s">
         <v>33</v>
       </c>
       <c r="H224" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J224" t="s">
-        <v>174</v>
-      </c>
-      <c r="K224" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K224" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L224" t="s">
@@ -14589,7 +14573,7 @@
       <c r="N224" t="s">
         <v>58</v>
       </c>
-      <c r="P224" s="4" t="s">
+      <c r="P224" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q224">
@@ -14611,7 +14595,7 @@
         <v>57</v>
       </c>
       <c r="AE224" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="225" spans="2:31" x14ac:dyDescent="0.25">
@@ -14622,21 +14606,21 @@
         <v>132</v>
       </c>
       <c r="D225" t="s">
-        <v>151</v>
-      </c>
-      <c r="E225" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G225" t="s">
         <v>33</v>
       </c>
       <c r="H225" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J225" t="s">
-        <v>174</v>
-      </c>
-      <c r="K225" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K225" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L225" t="s">
@@ -14648,7 +14632,7 @@
       <c r="N225" t="s">
         <v>62</v>
       </c>
-      <c r="P225" s="4" t="s">
+      <c r="P225" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q225">
@@ -14676,7 +14660,7 @@
         <v>50</v>
       </c>
       <c r="AC225" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD225" t="s">
         <v>61</v>
@@ -14693,21 +14677,21 @@
         <v>132</v>
       </c>
       <c r="D226" t="s">
-        <v>151</v>
-      </c>
-      <c r="E226" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G226" t="s">
         <v>33</v>
       </c>
       <c r="H226" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J226" t="s">
-        <v>174</v>
-      </c>
-      <c r="K226" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K226" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L226" t="s">
@@ -14719,7 +14703,7 @@
       <c r="N226" t="s">
         <v>65</v>
       </c>
-      <c r="P226" s="4" t="s">
+      <c r="P226" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q226">
@@ -14764,21 +14748,21 @@
         <v>132</v>
       </c>
       <c r="D227" t="s">
-        <v>151</v>
-      </c>
-      <c r="E227" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G227" t="s">
         <v>33</v>
       </c>
       <c r="H227" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J227" t="s">
-        <v>174</v>
-      </c>
-      <c r="K227" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K227" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L227" t="s">
@@ -14787,8 +14771,8 @@
       <c r="M227" t="s">
         <v>67</v>
       </c>
-      <c r="P227" s="7" t="s">
-        <v>195</v>
+      <c r="P227" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="Q227">
         <v>6</v>
@@ -14817,21 +14801,21 @@
         <v>132</v>
       </c>
       <c r="D228" t="s">
-        <v>151</v>
-      </c>
-      <c r="E228" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G228" t="s">
         <v>33</v>
       </c>
       <c r="H228" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J228" t="s">
-        <v>174</v>
-      </c>
-      <c r="K228" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K228" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L228" t="s">
@@ -14843,7 +14827,7 @@
       <c r="N228" t="s">
         <v>71</v>
       </c>
-      <c r="P228" s="4" t="s">
+      <c r="P228" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q228">
@@ -14868,13 +14852,13 @@
         <v>134</v>
       </c>
       <c r="AC228" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD228" t="s">
         <v>70</v>
       </c>
       <c r="AE228" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="229" spans="2:31" x14ac:dyDescent="0.25">
@@ -14885,21 +14869,21 @@
         <v>132</v>
       </c>
       <c r="D229" t="s">
-        <v>151</v>
-      </c>
-      <c r="E229" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G229" t="s">
         <v>33</v>
       </c>
       <c r="H229" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J229" t="s">
-        <v>174</v>
-      </c>
-      <c r="K229" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K229" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L229" t="s">
@@ -14911,7 +14895,7 @@
       <c r="N229" t="s">
         <v>88</v>
       </c>
-      <c r="P229" s="4" t="s">
+      <c r="P229" s="3" t="s">
         <v>89</v>
       </c>
       <c r="Q229">
@@ -14941,21 +14925,21 @@
         <v>132</v>
       </c>
       <c r="D230" t="s">
-        <v>151</v>
-      </c>
-      <c r="E230" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G230" t="s">
         <v>33</v>
       </c>
       <c r="H230" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J230" t="s">
-        <v>174</v>
-      </c>
-      <c r="K230" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K230" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L230" t="s">
@@ -14964,7 +14948,7 @@
       <c r="M230" t="s">
         <v>91</v>
       </c>
-      <c r="P230" s="4" t="s">
+      <c r="P230" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q230">
@@ -15009,21 +14993,21 @@
         <v>132</v>
       </c>
       <c r="D231" t="s">
-        <v>151</v>
-      </c>
-      <c r="E231" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G231" t="s">
         <v>33</v>
       </c>
       <c r="H231" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J231" t="s">
-        <v>174</v>
-      </c>
-      <c r="K231" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K231" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L231" t="s">
@@ -15035,7 +15019,7 @@
       <c r="N231" t="s">
         <v>95</v>
       </c>
-      <c r="P231" s="4" t="s">
+      <c r="P231" s="3" t="s">
         <v>96</v>
       </c>
       <c r="Q231">
@@ -15065,21 +15049,21 @@
         <v>132</v>
       </c>
       <c r="D232" t="s">
-        <v>151</v>
-      </c>
-      <c r="E232" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G232" t="s">
         <v>33</v>
       </c>
       <c r="H232" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J232" t="s">
-        <v>174</v>
-      </c>
-      <c r="K232" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K232" s="3" t="s">
         <v>133</v>
       </c>
       <c r="L232" t="s">
@@ -15088,7 +15072,7 @@
       <c r="M232" t="s">
         <v>100</v>
       </c>
-      <c r="P232" s="4" t="s">
+      <c r="P232" s="3" t="s">
         <v>101</v>
       </c>
       <c r="Q232">
@@ -15133,21 +15117,21 @@
         <v>137</v>
       </c>
       <c r="D233" t="s">
-        <v>151</v>
-      </c>
-      <c r="E233" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G233" t="s">
         <v>33</v>
       </c>
       <c r="H233" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J233" t="s">
-        <v>174</v>
-      </c>
-      <c r="K233" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K233" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L233" t="s">
@@ -15159,7 +15143,7 @@
       <c r="N233" t="s">
         <v>47</v>
       </c>
-      <c r="P233" s="4" t="s">
+      <c r="P233" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q233">
@@ -15184,7 +15168,7 @@
         <v>46</v>
       </c>
       <c r="AE233" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="234" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -15195,21 +15179,21 @@
         <v>137</v>
       </c>
       <c r="D234" t="s">
-        <v>151</v>
-      </c>
-      <c r="E234" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G234" t="s">
         <v>33</v>
       </c>
       <c r="H234" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J234" t="s">
-        <v>174</v>
-      </c>
-      <c r="K234" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K234" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L234" t="s">
@@ -15221,7 +15205,7 @@
       <c r="N234" t="s">
         <v>58</v>
       </c>
-      <c r="P234" s="4" t="s">
+      <c r="P234" s="3" t="s">
         <v>59</v>
       </c>
       <c r="Q234">
@@ -15243,7 +15227,7 @@
         <v>57</v>
       </c>
       <c r="AE234" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="235" spans="2:31" ht="30" x14ac:dyDescent="0.25">
@@ -15254,21 +15238,21 @@
         <v>137</v>
       </c>
       <c r="D235" t="s">
-        <v>151</v>
-      </c>
-      <c r="E235" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G235" t="s">
         <v>33</v>
       </c>
       <c r="H235" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J235" t="s">
-        <v>174</v>
-      </c>
-      <c r="K235" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K235" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L235" t="s">
@@ -15280,7 +15264,7 @@
       <c r="N235" t="s">
         <v>62</v>
       </c>
-      <c r="P235" s="4" t="s">
+      <c r="P235" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q235">
@@ -15308,7 +15292,7 @@
         <v>50</v>
       </c>
       <c r="AC235" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD235" t="s">
         <v>61</v>
@@ -15325,21 +15309,21 @@
         <v>137</v>
       </c>
       <c r="D236" t="s">
-        <v>151</v>
-      </c>
-      <c r="E236" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G236" t="s">
         <v>33</v>
       </c>
       <c r="H236" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J236" t="s">
-        <v>174</v>
-      </c>
-      <c r="K236" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K236" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L236" t="s">
@@ -15351,7 +15335,7 @@
       <c r="N236" t="s">
         <v>65</v>
       </c>
-      <c r="P236" s="4" t="s">
+      <c r="P236" s="3" t="s">
         <v>66</v>
       </c>
       <c r="Q236">
@@ -15396,21 +15380,21 @@
         <v>137</v>
       </c>
       <c r="D237" t="s">
-        <v>151</v>
-      </c>
-      <c r="E237" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G237" t="s">
         <v>33</v>
       </c>
       <c r="H237" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J237" t="s">
-        <v>174</v>
-      </c>
-      <c r="K237" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K237" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L237" t="s">
@@ -15419,8 +15403,8 @@
       <c r="M237" t="s">
         <v>67</v>
       </c>
-      <c r="P237" s="7" t="s">
-        <v>200</v>
+      <c r="P237" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="Q237">
         <v>6</v>
@@ -15449,21 +15433,21 @@
         <v>137</v>
       </c>
       <c r="D238" t="s">
-        <v>151</v>
-      </c>
-      <c r="E238" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G238" t="s">
         <v>33</v>
       </c>
       <c r="H238" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J238" t="s">
-        <v>174</v>
-      </c>
-      <c r="K238" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K238" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L238" t="s">
@@ -15475,7 +15459,7 @@
       <c r="N238" t="s">
         <v>71</v>
       </c>
-      <c r="P238" s="4" t="s">
+      <c r="P238" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q238">
@@ -15497,16 +15481,16 @@
         <v>74</v>
       </c>
       <c r="AB238" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC238" t="s">
         <v>184</v>
-      </c>
-      <c r="AC238" t="s">
-        <v>185</v>
       </c>
       <c r="AD238" t="s">
         <v>70</v>
       </c>
       <c r="AE238" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -15515,7 +15499,7 @@
       <sortCondition sortBy="cellColor" ref="A1:A172" dxfId="0"/>
     </sortState>
   </autoFilter>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/curation/draft/collection/collection_specialization_SU.xlsx
+++ b/curation/draft/collection/collection_specialization_SU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E5045B-6FD8-4AD1-AD38-9F06D234191C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E642433-EC77-43F2-9CF7-3A88CBD76BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_SU" sheetId="1" r:id="rId1"/>
@@ -746,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -762,6 +762,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,29 +1081,30 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O171" sqref="O171"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="25.42578125" customWidth="1"/>
-    <col min="28" max="28" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" customWidth="1"/>
+    <col min="4" max="4" width="14.265625" customWidth="1"/>
+    <col min="8" max="8" width="25.86328125" customWidth="1"/>
+    <col min="11" max="11" width="8.86328125" style="4"/>
+    <col min="12" max="12" width="14.3984375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="23.3984375" customWidth="1"/>
+    <col min="15" max="15" width="15.1328125" customWidth="1"/>
+    <col min="16" max="16" width="14.73046875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="20.3984375" style="3" customWidth="1"/>
+    <col min="27" max="27" width="25.3984375" customWidth="1"/>
+    <col min="28" max="28" width="26.3984375" customWidth="1"/>
     <col min="29" max="29" width="28" customWidth="1"/>
-    <col min="31" max="31" width="21.85546875" customWidth="1"/>
+    <col min="31" max="31" width="21.86328125" customWidth="1"/>
     <col min="32" max="32" width="25" customWidth="1"/>
-    <col min="33" max="33" width="17.42578125" customWidth="1"/>
-    <col min="34" max="34" width="20.28515625" customWidth="1"/>
+    <col min="33" max="33" width="17.3984375" customWidth="1"/>
+    <col min="34" max="34" width="20.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +1135,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>208</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1210,7 +1214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>215</v>
       </c>
@@ -1272,7 +1276,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>215</v>
       </c>
@@ -1322,7 +1326,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -1381,7 +1385,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -1443,7 +1447,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>43</v>
       </c>
@@ -1499,7 +1503,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -1567,7 +1571,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>43</v>
       </c>
@@ -1635,7 +1639,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -1685,7 +1689,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>43</v>
       </c>
@@ -1753,7 +1757,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>43</v>
       </c>
@@ -1821,7 +1825,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>43</v>
       </c>
@@ -1871,7 +1875,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>43</v>
       </c>
@@ -1924,7 +1928,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -1989,7 +1993,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>43</v>
       </c>
@@ -2042,7 +2046,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>43</v>
       </c>
@@ -2095,7 +2099,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>43</v>
       </c>
@@ -2160,7 +2164,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>43</v>
       </c>
@@ -2219,7 +2223,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>43</v>
       </c>
@@ -2272,7 +2276,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>43</v>
       </c>
@@ -2328,7 +2332,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -2396,7 +2400,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>43</v>
       </c>
@@ -2464,7 +2468,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -2514,7 +2518,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>43</v>
       </c>
@@ -2582,7 +2586,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>43</v>
       </c>
@@ -2650,7 +2654,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>43</v>
       </c>
@@ -2700,7 +2704,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>43</v>
       </c>
@@ -2753,7 +2757,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -2818,7 +2822,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="29" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>43</v>
       </c>
@@ -2871,7 +2875,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>43</v>
       </c>
@@ -2924,7 +2928,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>43</v>
       </c>
@@ -2989,7 +2993,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>105</v>
       </c>
@@ -3048,7 +3052,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>105</v>
       </c>
@@ -3110,7 +3114,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>105</v>
       </c>
@@ -3166,7 +3170,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>105</v>
       </c>
@@ -3234,7 +3238,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>105</v>
       </c>
@@ -3302,7 +3306,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>105</v>
       </c>
@@ -3352,7 +3356,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>105</v>
       </c>
@@ -3420,7 +3424,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>105</v>
       </c>
@@ -3488,7 +3492,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>105</v>
       </c>
@@ -3538,7 +3542,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>105</v>
       </c>
@@ -3591,7 +3595,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>105</v>
       </c>
@@ -3656,7 +3660,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>105</v>
       </c>
@@ -3709,7 +3713,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>105</v>
       </c>
@@ -3762,7 +3766,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>105</v>
       </c>
@@ -3827,7 +3831,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>112</v>
       </c>
@@ -3886,7 +3890,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>112</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>112</v>
       </c>
@@ -3995,7 +3999,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>112</v>
       </c>
@@ -4063,7 +4067,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>112</v>
       </c>
@@ -4131,7 +4135,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>112</v>
       </c>
@@ -4181,7 +4185,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>112</v>
       </c>
@@ -4249,7 +4253,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
         <v>112</v>
       </c>
@@ -4317,7 +4321,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>112</v>
       </c>
@@ -4367,7 +4371,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
         <v>112</v>
       </c>
@@ -4420,7 +4424,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
         <v>112</v>
       </c>
@@ -4485,7 +4489,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="57" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
         <v>112</v>
       </c>
@@ -4538,7 +4542,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>112</v>
       </c>
@@ -4591,7 +4595,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>112</v>
       </c>
@@ -4656,7 +4660,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>112</v>
       </c>
@@ -4715,7 +4719,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>112</v>
       </c>
@@ -4768,7 +4772,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
         <v>112</v>
       </c>
@@ -4824,7 +4828,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>112</v>
       </c>
@@ -4892,7 +4896,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
         <v>112</v>
       </c>
@@ -4960,7 +4964,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>112</v>
       </c>
@@ -5010,7 +5014,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
         <v>112</v>
       </c>
@@ -5075,7 +5079,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
         <v>112</v>
       </c>
@@ -5143,7 +5147,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
         <v>112</v>
       </c>
@@ -5193,7 +5197,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>112</v>
       </c>
@@ -5246,7 +5250,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>112</v>
       </c>
@@ -5311,7 +5315,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>112</v>
       </c>
@@ -5364,7 +5368,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>112</v>
       </c>
@@ -5417,7 +5421,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>112</v>
       </c>
@@ -5482,7 +5486,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="74" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
         <v>105</v>
       </c>
@@ -5541,7 +5545,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
         <v>105</v>
       </c>
@@ -5594,7 +5598,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
         <v>105</v>
       </c>
@@ -5650,7 +5654,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
         <v>105</v>
       </c>
@@ -5718,7 +5722,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
         <v>105</v>
       </c>
@@ -5786,7 +5790,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
         <v>105</v>
       </c>
@@ -5836,7 +5840,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
         <v>105</v>
       </c>
@@ -5904,7 +5908,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
         <v>105</v>
       </c>
@@ -5972,7 +5976,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
         <v>105</v>
       </c>
@@ -6022,7 +6026,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
         <v>105</v>
       </c>
@@ -6075,7 +6079,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
         <v>105</v>
       </c>
@@ -6140,7 +6144,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
         <v>105</v>
       </c>
@@ -6193,7 +6197,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B86" t="s">
         <v>105</v>
       </c>
@@ -6246,7 +6250,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
         <v>105</v>
       </c>
@@ -6311,7 +6315,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="88" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
         <v>105</v>
       </c>
@@ -6370,7 +6374,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="89" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
         <v>105</v>
       </c>
@@ -6423,7 +6427,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
         <v>105</v>
       </c>
@@ -6479,7 +6483,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="91" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
         <v>105</v>
       </c>
@@ -6547,7 +6551,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
         <v>105</v>
       </c>
@@ -6615,7 +6619,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
         <v>105</v>
       </c>
@@ -6665,7 +6669,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
         <v>105</v>
       </c>
@@ -6724,7 +6728,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
         <v>105</v>
       </c>
@@ -6792,7 +6796,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="96" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
         <v>105</v>
       </c>
@@ -6842,7 +6846,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
         <v>105</v>
       </c>
@@ -6895,7 +6899,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="98" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
         <v>105</v>
       </c>
@@ -6960,7 +6964,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="99" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
         <v>105</v>
       </c>
@@ -7013,7 +7017,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
         <v>105</v>
       </c>
@@ -7066,7 +7070,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
         <v>105</v>
       </c>
@@ -7131,7 +7135,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="102" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
         <v>43</v>
       </c>
@@ -7190,7 +7194,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="103" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
         <v>43</v>
       </c>
@@ -7243,7 +7247,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
         <v>43</v>
       </c>
@@ -7299,7 +7303,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="105" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
         <v>43</v>
       </c>
@@ -7367,7 +7371,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="106" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
         <v>43</v>
       </c>
@@ -7435,7 +7439,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
         <v>43</v>
       </c>
@@ -7485,7 +7489,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
         <v>43</v>
       </c>
@@ -7544,7 +7548,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
         <v>43</v>
       </c>
@@ -7612,7 +7616,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
         <v>43</v>
       </c>
@@ -7662,7 +7666,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="111" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B111" t="s">
         <v>43</v>
       </c>
@@ -7715,7 +7719,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="112" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B112" t="s">
         <v>43</v>
       </c>
@@ -7780,7 +7784,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="113" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B113" t="s">
         <v>43</v>
       </c>
@@ -7833,7 +7837,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
         <v>43</v>
       </c>
@@ -7886,7 +7890,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="115" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B115" t="s">
         <v>43</v>
       </c>
@@ -7951,7 +7955,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="116" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
         <v>112</v>
       </c>
@@ -8010,7 +8014,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B117" t="s">
         <v>112</v>
       </c>
@@ -8063,7 +8067,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="118" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B118" t="s">
         <v>112</v>
       </c>
@@ -8119,7 +8123,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
         <v>112</v>
       </c>
@@ -8187,7 +8191,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="120" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B120" t="s">
         <v>112</v>
       </c>
@@ -8255,7 +8259,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="121" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B121" t="s">
         <v>112</v>
       </c>
@@ -8305,7 +8309,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B122" t="s">
         <v>112</v>
       </c>
@@ -8373,7 +8377,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="123" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B123" t="s">
         <v>112</v>
       </c>
@@ -8441,7 +8445,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="124" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B124" t="s">
         <v>112</v>
       </c>
@@ -8491,7 +8495,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="125" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B125" t="s">
         <v>112</v>
       </c>
@@ -8544,7 +8548,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="126" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B126" t="s">
         <v>112</v>
       </c>
@@ -8609,7 +8613,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B127" t="s">
         <v>112</v>
       </c>
@@ -8662,7 +8666,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B128" t="s">
         <v>112</v>
       </c>
@@ -8715,7 +8719,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="129" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B129" t="s">
         <v>112</v>
       </c>
@@ -8780,7 +8784,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="130" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B130" t="s">
         <v>105</v>
       </c>
@@ -8839,7 +8843,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="131" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B131" t="s">
         <v>105</v>
       </c>
@@ -8892,7 +8896,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B132" t="s">
         <v>105</v>
       </c>
@@ -8948,7 +8952,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="133" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B133" t="s">
         <v>105</v>
       </c>
@@ -9016,7 +9020,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="134" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B134" t="s">
         <v>105</v>
       </c>
@@ -9084,7 +9088,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="135" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B135" t="s">
         <v>105</v>
       </c>
@@ -9134,7 +9138,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="136" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B136" t="s">
         <v>105</v>
       </c>
@@ -9193,7 +9197,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="137" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B137" t="s">
         <v>105</v>
       </c>
@@ -9261,7 +9265,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="138" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B138" t="s">
         <v>105</v>
       </c>
@@ -9311,7 +9315,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="139" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B139" t="s">
         <v>105</v>
       </c>
@@ -9364,7 +9368,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="140" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B140" t="s">
         <v>105</v>
       </c>
@@ -9429,7 +9433,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="141" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B141" t="s">
         <v>105</v>
       </c>
@@ -9482,7 +9486,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="142" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B142" t="s">
         <v>105</v>
       </c>
@@ -9535,7 +9539,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="143" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B143" t="s">
         <v>105</v>
       </c>
@@ -9600,7 +9604,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="144" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B144" t="s">
         <v>112</v>
       </c>
@@ -9659,7 +9663,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="145" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B145" t="s">
         <v>112</v>
       </c>
@@ -9721,7 +9725,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B146" t="s">
         <v>112</v>
       </c>
@@ -9777,7 +9781,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="147" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B147" t="s">
         <v>112</v>
       </c>
@@ -9845,7 +9849,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="148" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B148" t="s">
         <v>112</v>
       </c>
@@ -9913,7 +9917,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="149" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B149" t="s">
         <v>112</v>
       </c>
@@ -9963,7 +9967,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="150" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B150" t="s">
         <v>112</v>
       </c>
@@ -10031,7 +10035,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="151" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B151" t="s">
         <v>112</v>
       </c>
@@ -10099,7 +10103,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B152" t="s">
         <v>112</v>
       </c>
@@ -10149,7 +10153,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="153" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B153" t="s">
         <v>112</v>
       </c>
@@ -10202,7 +10206,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="154" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B154" t="s">
         <v>112</v>
       </c>
@@ -10267,7 +10271,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="155" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B155" t="s">
         <v>112</v>
       </c>
@@ -10320,7 +10324,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="156" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B156" t="s">
         <v>112</v>
       </c>
@@ -10373,7 +10377,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="157" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B157" t="s">
         <v>112</v>
       </c>
@@ -10438,7 +10442,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="158" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B158" t="s">
         <v>43</v>
       </c>
@@ -10497,7 +10501,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B159" t="s">
         <v>43</v>
       </c>
@@ -10550,7 +10554,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="160" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B160" t="s">
         <v>43</v>
       </c>
@@ -10606,7 +10610,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="161" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B161" t="s">
         <v>43</v>
       </c>
@@ -10674,7 +10678,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="162" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B162" t="s">
         <v>43</v>
       </c>
@@ -10742,7 +10746,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="163" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B163" t="s">
         <v>43</v>
       </c>
@@ -10792,7 +10796,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="164" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B164" t="s">
         <v>43</v>
       </c>
@@ -10851,7 +10855,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="165" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B165" t="s">
         <v>43</v>
       </c>
@@ -10919,7 +10923,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="166" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B166" t="s">
         <v>43</v>
       </c>
@@ -10969,7 +10973,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="167" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B167" t="s">
         <v>43</v>
       </c>
@@ -11022,7 +11026,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="168" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B168" t="s">
         <v>43</v>
       </c>
@@ -11087,7 +11091,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="169" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B169" t="s">
         <v>43</v>
       </c>
@@ -11140,7 +11144,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="170" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B170" t="s">
         <v>43</v>
       </c>
@@ -11193,7 +11197,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="171" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B171" t="s">
         <v>43</v>
       </c>
@@ -11258,7 +11262,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="172" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B172" t="s">
         <v>215</v>
       </c>
@@ -11274,7 +11278,7 @@
       <c r="H172" t="s">
         <v>207</v>
       </c>
-      <c r="K172">
+      <c r="K172" s="4">
         <v>360</v>
       </c>
       <c r="L172" s="3" t="s">
@@ -11323,7 +11327,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="173" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B173" t="s">
         <v>43</v>
       </c>
@@ -11342,7 +11346,7 @@
       <c r="H173" t="s">
         <v>198</v>
       </c>
-      <c r="K173">
+      <c r="K173" s="4">
         <v>360</v>
       </c>
       <c r="L173" s="3" t="s">
@@ -11385,7 +11389,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B174" t="s">
         <v>43</v>
       </c>
@@ -11404,7 +11408,7 @@
       <c r="H174" t="s">
         <v>198</v>
       </c>
-      <c r="K174">
+      <c r="K174" s="4">
         <v>360</v>
       </c>
       <c r="L174" s="3" t="s">
@@ -11444,7 +11448,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="175" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B175" t="s">
         <v>43</v>
       </c>
@@ -11463,7 +11467,7 @@
       <c r="H175" t="s">
         <v>198</v>
       </c>
-      <c r="K175">
+      <c r="K175" s="4">
         <v>360</v>
       </c>
       <c r="L175" s="3" t="s">
@@ -11515,7 +11519,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="176" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B176" t="s">
         <v>43</v>
       </c>
@@ -11534,7 +11538,7 @@
       <c r="H176" t="s">
         <v>198</v>
       </c>
-      <c r="K176">
+      <c r="K176" s="4">
         <v>360</v>
       </c>
       <c r="L176" s="3" t="s">
@@ -11586,7 +11590,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="177" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B177" t="s">
         <v>43</v>
       </c>
@@ -11605,7 +11609,7 @@
       <c r="H177" t="s">
         <v>198</v>
       </c>
-      <c r="K177">
+      <c r="K177" s="4">
         <v>360</v>
       </c>
       <c r="L177" s="3" t="s">
@@ -11639,7 +11643,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="178" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B178" t="s">
         <v>43</v>
       </c>
@@ -11658,7 +11662,7 @@
       <c r="H178" t="s">
         <v>198</v>
       </c>
-      <c r="K178">
+      <c r="K178" s="4">
         <v>360</v>
       </c>
       <c r="L178" s="3" t="s">
@@ -11710,7 +11714,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="179" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B179" t="s">
         <v>43</v>
       </c>
@@ -11729,7 +11733,7 @@
       <c r="H179" t="s">
         <v>199</v>
       </c>
-      <c r="K179">
+      <c r="K179" s="4">
         <v>360</v>
       </c>
       <c r="L179" s="3" t="s">
@@ -11772,7 +11776,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="180" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B180" t="s">
         <v>43</v>
       </c>
@@ -11791,7 +11795,7 @@
       <c r="H180" t="s">
         <v>199</v>
       </c>
-      <c r="K180">
+      <c r="K180" s="4">
         <v>360</v>
       </c>
       <c r="L180" s="3" t="s">
@@ -11831,7 +11835,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="181" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B181" t="s">
         <v>43</v>
       </c>
@@ -11850,7 +11854,7 @@
       <c r="H181" t="s">
         <v>199</v>
       </c>
-      <c r="K181">
+      <c r="K181" s="4">
         <v>360</v>
       </c>
       <c r="L181" s="3" t="s">
@@ -11902,7 +11906,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="182" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B182" t="s">
         <v>43</v>
       </c>
@@ -11921,7 +11925,7 @@
       <c r="H182" t="s">
         <v>199</v>
       </c>
-      <c r="K182">
+      <c r="K182" s="4">
         <v>360</v>
       </c>
       <c r="L182" s="3" t="s">
@@ -11973,7 +11977,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="183" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B183" t="s">
         <v>43</v>
       </c>
@@ -11992,7 +11996,7 @@
       <c r="H183" t="s">
         <v>199</v>
       </c>
-      <c r="K183">
+      <c r="K183" s="4">
         <v>360</v>
       </c>
       <c r="L183" s="3" t="s">
@@ -12026,7 +12030,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="184" spans="2:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B184" t="s">
         <v>43</v>
       </c>
@@ -12045,7 +12049,7 @@
       <c r="H184" t="s">
         <v>199</v>
       </c>
-      <c r="K184">
+      <c r="K184" s="4">
         <v>360</v>
       </c>
       <c r="L184" s="3" t="s">
@@ -12094,7 +12098,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="185" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B185" t="s">
         <v>43</v>
       </c>
@@ -12113,7 +12117,7 @@
       <c r="H185" t="s">
         <v>200</v>
       </c>
-      <c r="K185">
+      <c r="K185" s="4">
         <v>360</v>
       </c>
       <c r="L185" s="3" t="s">
@@ -12156,7 +12160,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="186" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B186" t="s">
         <v>43</v>
       </c>
@@ -12175,7 +12179,7 @@
       <c r="H186" t="s">
         <v>200</v>
       </c>
-      <c r="K186">
+      <c r="K186" s="4">
         <v>360</v>
       </c>
       <c r="L186" s="3" t="s">
@@ -12215,7 +12219,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="187" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B187" t="s">
         <v>43</v>
       </c>
@@ -12234,7 +12238,7 @@
       <c r="H187" t="s">
         <v>200</v>
       </c>
-      <c r="K187">
+      <c r="K187" s="4">
         <v>360</v>
       </c>
       <c r="L187" s="3" t="s">
@@ -12286,7 +12290,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="188" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B188" t="s">
         <v>43</v>
       </c>
@@ -12305,7 +12309,7 @@
       <c r="H188" t="s">
         <v>200</v>
       </c>
-      <c r="K188">
+      <c r="K188" s="4">
         <v>360</v>
       </c>
       <c r="L188" s="3" t="s">
@@ -12357,7 +12361,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="189" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B189" t="s">
         <v>43</v>
       </c>
@@ -12376,7 +12380,7 @@
       <c r="H189" t="s">
         <v>200</v>
       </c>
-      <c r="K189">
+      <c r="K189" s="4">
         <v>360</v>
       </c>
       <c r="L189" s="3" t="s">
@@ -12410,7 +12414,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="190" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B190" t="s">
         <v>43</v>
       </c>
@@ -12429,7 +12433,7 @@
       <c r="H190" t="s">
         <v>200</v>
       </c>
-      <c r="K190">
+      <c r="K190" s="4">
         <v>360</v>
       </c>
       <c r="L190" s="3" t="s">
@@ -12478,7 +12482,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="191" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B191" t="s">
         <v>112</v>
       </c>
@@ -12497,7 +12501,7 @@
       <c r="H191" t="s">
         <v>201</v>
       </c>
-      <c r="K191">
+      <c r="K191" s="4">
         <v>360</v>
       </c>
       <c r="L191" s="3" t="s">
@@ -12540,7 +12544,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="192" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B192" t="s">
         <v>112</v>
       </c>
@@ -12559,7 +12563,7 @@
       <c r="H192" t="s">
         <v>201</v>
       </c>
-      <c r="K192">
+      <c r="K192" s="4">
         <v>360</v>
       </c>
       <c r="L192" s="3" t="s">
@@ -12599,7 +12603,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="193" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B193" t="s">
         <v>112</v>
       </c>
@@ -12618,7 +12622,7 @@
       <c r="H193" t="s">
         <v>201</v>
       </c>
-      <c r="K193">
+      <c r="K193" s="4">
         <v>360</v>
       </c>
       <c r="L193" s="3" t="s">
@@ -12670,7 +12674,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="194" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B194" t="s">
         <v>112</v>
       </c>
@@ -12689,7 +12693,7 @@
       <c r="H194" t="s">
         <v>201</v>
       </c>
-      <c r="K194">
+      <c r="K194" s="4">
         <v>360</v>
       </c>
       <c r="L194" s="3" t="s">
@@ -12741,7 +12745,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="195" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B195" t="s">
         <v>112</v>
       </c>
@@ -12760,7 +12764,7 @@
       <c r="H195" t="s">
         <v>201</v>
       </c>
-      <c r="K195">
+      <c r="K195" s="4">
         <v>360</v>
       </c>
       <c r="L195" s="3" t="s">
@@ -12794,7 +12798,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="196" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B196" t="s">
         <v>112</v>
       </c>
@@ -12813,7 +12817,7 @@
       <c r="H196" t="s">
         <v>201</v>
       </c>
-      <c r="K196">
+      <c r="K196" s="4">
         <v>360</v>
       </c>
       <c r="L196" s="3" t="s">
@@ -12862,7 +12866,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="197" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B197" t="s">
         <v>112</v>
       </c>
@@ -12881,7 +12885,7 @@
       <c r="H197" t="s">
         <v>201</v>
       </c>
-      <c r="K197">
+      <c r="K197" s="4">
         <v>360</v>
       </c>
       <c r="L197" s="3" t="s">
@@ -12918,7 +12922,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="198" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B198" t="s">
         <v>112</v>
       </c>
@@ -12937,7 +12941,7 @@
       <c r="H198" t="s">
         <v>201</v>
       </c>
-      <c r="K198">
+      <c r="K198" s="4">
         <v>360</v>
       </c>
       <c r="L198" s="3" t="s">
@@ -12986,7 +12990,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="199" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B199" t="s">
         <v>112</v>
       </c>
@@ -13005,7 +13009,7 @@
       <c r="H199" t="s">
         <v>201</v>
       </c>
-      <c r="K199">
+      <c r="K199" s="4">
         <v>360</v>
       </c>
       <c r="L199" s="3" t="s">
@@ -13042,7 +13046,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="200" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B200" t="s">
         <v>112</v>
       </c>
@@ -13061,7 +13065,7 @@
       <c r="H200" t="s">
         <v>201</v>
       </c>
-      <c r="K200">
+      <c r="K200" s="4">
         <v>360</v>
       </c>
       <c r="L200" s="3" t="s">
@@ -13110,7 +13114,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="201" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B201" t="s">
         <v>112</v>
       </c>
@@ -13129,7 +13133,7 @@
       <c r="H201" t="s">
         <v>202</v>
       </c>
-      <c r="K201">
+      <c r="K201" s="4">
         <v>360</v>
       </c>
       <c r="L201" s="3" t="s">
@@ -13172,7 +13176,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="202" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B202" t="s">
         <v>112</v>
       </c>
@@ -13191,7 +13195,7 @@
       <c r="H202" t="s">
         <v>202</v>
       </c>
-      <c r="K202">
+      <c r="K202" s="4">
         <v>360</v>
       </c>
       <c r="L202" s="3" t="s">
@@ -13231,7 +13235,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="203" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B203" t="s">
         <v>112</v>
       </c>
@@ -13250,7 +13254,7 @@
       <c r="H203" t="s">
         <v>202</v>
       </c>
-      <c r="K203">
+      <c r="K203" s="4">
         <v>360</v>
       </c>
       <c r="L203" s="3" t="s">
@@ -13302,7 +13306,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="204" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B204" t="s">
         <v>112</v>
       </c>
@@ -13321,7 +13325,7 @@
       <c r="H204" t="s">
         <v>202</v>
       </c>
-      <c r="K204">
+      <c r="K204" s="4">
         <v>360</v>
       </c>
       <c r="L204" s="3" t="s">
@@ -13373,7 +13377,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="205" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B205" t="s">
         <v>112</v>
       </c>
@@ -13392,7 +13396,7 @@
       <c r="H205" t="s">
         <v>202</v>
       </c>
-      <c r="K205">
+      <c r="K205" s="4">
         <v>360</v>
       </c>
       <c r="L205" s="3" t="s">
@@ -13426,7 +13430,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="206" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B206" t="s">
         <v>112</v>
       </c>
@@ -13445,7 +13449,7 @@
       <c r="H206" t="s">
         <v>202</v>
       </c>
-      <c r="K206">
+      <c r="K206" s="4">
         <v>360</v>
       </c>
       <c r="L206" s="3" t="s">
@@ -13494,7 +13498,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="207" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B207" t="s">
         <v>112</v>
       </c>
@@ -13513,7 +13517,7 @@
       <c r="H207" t="s">
         <v>202</v>
       </c>
-      <c r="K207">
+      <c r="K207" s="4">
         <v>360</v>
       </c>
       <c r="L207" s="3" t="s">
@@ -13550,7 +13554,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="208" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B208" t="s">
         <v>112</v>
       </c>
@@ -13569,7 +13573,7 @@
       <c r="H208" t="s">
         <v>202</v>
       </c>
-      <c r="K208">
+      <c r="K208" s="4">
         <v>360</v>
       </c>
       <c r="L208" s="3" t="s">
@@ -13618,7 +13622,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="209" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B209" t="s">
         <v>112</v>
       </c>
@@ -13637,7 +13641,7 @@
       <c r="H209" t="s">
         <v>202</v>
       </c>
-      <c r="K209">
+      <c r="K209" s="4">
         <v>360</v>
       </c>
       <c r="L209" s="3" t="s">
@@ -13674,7 +13678,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="210" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B210" t="s">
         <v>112</v>
       </c>
@@ -13693,7 +13697,7 @@
       <c r="H210" t="s">
         <v>202</v>
       </c>
-      <c r="K210">
+      <c r="K210" s="4">
         <v>360</v>
       </c>
       <c r="L210" s="3" t="s">
@@ -13742,7 +13746,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="211" spans="2:34" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:34" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B211" t="s">
         <v>105</v>
       </c>
@@ -13761,7 +13765,7 @@
       <c r="H211" t="s">
         <v>203</v>
       </c>
-      <c r="K211">
+      <c r="K211" s="4">
         <v>360</v>
       </c>
       <c r="L211" s="3" t="s">
@@ -13804,7 +13808,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="212" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B212" t="s">
         <v>105</v>
       </c>
@@ -13823,7 +13827,7 @@
       <c r="H212" t="s">
         <v>203</v>
       </c>
-      <c r="K212">
+      <c r="K212" s="4">
         <v>360</v>
       </c>
       <c r="L212" s="3" t="s">
@@ -13863,7 +13867,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="213" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B213" t="s">
         <v>105</v>
       </c>
@@ -13882,7 +13886,7 @@
       <c r="H213" t="s">
         <v>203</v>
       </c>
-      <c r="K213">
+      <c r="K213" s="4">
         <v>360</v>
       </c>
       <c r="L213" s="3" t="s">
@@ -13934,7 +13938,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="214" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B214" t="s">
         <v>105</v>
       </c>
@@ -13953,7 +13957,7 @@
       <c r="H214" t="s">
         <v>203</v>
       </c>
-      <c r="K214">
+      <c r="K214" s="4">
         <v>360</v>
       </c>
       <c r="L214" s="3" t="s">
@@ -14005,7 +14009,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="215" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B215" t="s">
         <v>105</v>
       </c>
@@ -14024,7 +14028,7 @@
       <c r="H215" t="s">
         <v>203</v>
       </c>
-      <c r="K215">
+      <c r="K215" s="4">
         <v>360</v>
       </c>
       <c r="L215" s="3" t="s">
@@ -14058,7 +14062,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="216" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B216" t="s">
         <v>105</v>
       </c>
@@ -14077,7 +14081,7 @@
       <c r="H216" t="s">
         <v>203</v>
       </c>
-      <c r="K216">
+      <c r="K216" s="4">
         <v>360</v>
       </c>
       <c r="L216" s="3" t="s">
@@ -14126,7 +14130,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="217" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B217" t="s">
         <v>105</v>
       </c>
@@ -14145,7 +14149,7 @@
       <c r="H217" t="s">
         <v>204</v>
       </c>
-      <c r="K217">
+      <c r="K217" s="4">
         <v>360</v>
       </c>
       <c r="L217" s="3" t="s">
@@ -14188,7 +14192,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="218" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B218" t="s">
         <v>105</v>
       </c>
@@ -14207,7 +14211,7 @@
       <c r="H218" t="s">
         <v>204</v>
       </c>
-      <c r="K218">
+      <c r="K218" s="4">
         <v>360</v>
       </c>
       <c r="L218" s="3" t="s">
@@ -14247,7 +14251,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="219" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B219" t="s">
         <v>105</v>
       </c>
@@ -14266,7 +14270,7 @@
       <c r="H219" t="s">
         <v>204</v>
       </c>
-      <c r="K219">
+      <c r="K219" s="4">
         <v>360</v>
       </c>
       <c r="L219" s="3" t="s">
@@ -14318,7 +14322,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="220" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B220" t="s">
         <v>105</v>
       </c>
@@ -14337,7 +14341,7 @@
       <c r="H220" t="s">
         <v>204</v>
       </c>
-      <c r="K220">
+      <c r="K220" s="4">
         <v>360</v>
       </c>
       <c r="L220" s="3" t="s">
@@ -14389,7 +14393,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="221" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B221" t="s">
         <v>105</v>
       </c>
@@ -14408,7 +14412,7 @@
       <c r="H221" t="s">
         <v>204</v>
       </c>
-      <c r="K221">
+      <c r="K221" s="4">
         <v>360</v>
       </c>
       <c r="L221" s="3" t="s">
@@ -14442,7 +14446,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="222" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B222" t="s">
         <v>105</v>
       </c>
@@ -14461,7 +14465,7 @@
       <c r="H222" t="s">
         <v>204</v>
       </c>
-      <c r="K222">
+      <c r="K222" s="4">
         <v>360</v>
       </c>
       <c r="L222" s="3" t="s">
@@ -14510,7 +14514,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="223" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B223" t="s">
         <v>112</v>
       </c>
@@ -14529,7 +14533,7 @@
       <c r="H223" t="s">
         <v>205</v>
       </c>
-      <c r="K223">
+      <c r="K223" s="4">
         <v>360</v>
       </c>
       <c r="L223" s="3" t="s">
@@ -14572,7 +14576,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="224" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B224" t="s">
         <v>112</v>
       </c>
@@ -14591,7 +14595,7 @@
       <c r="H224" t="s">
         <v>205</v>
       </c>
-      <c r="K224">
+      <c r="K224" s="4">
         <v>360</v>
       </c>
       <c r="L224" s="3" t="s">
@@ -14631,7 +14635,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="225" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B225" t="s">
         <v>112</v>
       </c>
@@ -14650,7 +14654,7 @@
       <c r="H225" t="s">
         <v>205</v>
       </c>
-      <c r="K225">
+      <c r="K225" s="4">
         <v>360</v>
       </c>
       <c r="L225" s="3" t="s">
@@ -14702,7 +14706,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="226" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B226" t="s">
         <v>112</v>
       </c>
@@ -14721,7 +14725,7 @@
       <c r="H226" t="s">
         <v>205</v>
       </c>
-      <c r="K226">
+      <c r="K226" s="4">
         <v>360</v>
       </c>
       <c r="L226" s="3" t="s">
@@ -14773,7 +14777,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="227" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B227" t="s">
         <v>112</v>
       </c>
@@ -14792,7 +14796,7 @@
       <c r="H227" t="s">
         <v>205</v>
       </c>
-      <c r="K227">
+      <c r="K227" s="4">
         <v>360</v>
       </c>
       <c r="L227" s="3" t="s">
@@ -14826,7 +14830,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="228" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B228" t="s">
         <v>112</v>
       </c>
@@ -14845,7 +14849,7 @@
       <c r="H228" t="s">
         <v>205</v>
       </c>
-      <c r="K228">
+      <c r="K228" s="4">
         <v>360</v>
       </c>
       <c r="L228" s="3" t="s">
@@ -14894,7 +14898,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="229" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B229" t="s">
         <v>112</v>
       </c>
@@ -14913,7 +14917,7 @@
       <c r="H229" t="s">
         <v>205</v>
       </c>
-      <c r="K229">
+      <c r="K229" s="4">
         <v>360</v>
       </c>
       <c r="L229" s="3" t="s">
@@ -14950,7 +14954,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="230" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B230" t="s">
         <v>112</v>
       </c>
@@ -14969,7 +14973,7 @@
       <c r="H230" t="s">
         <v>205</v>
       </c>
-      <c r="K230">
+      <c r="K230" s="4">
         <v>360</v>
       </c>
       <c r="L230" s="3" t="s">
@@ -15018,7 +15022,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="231" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B231" t="s">
         <v>112</v>
       </c>
@@ -15037,7 +15041,7 @@
       <c r="H231" t="s">
         <v>205</v>
       </c>
-      <c r="K231">
+      <c r="K231" s="4">
         <v>360</v>
       </c>
       <c r="L231" s="3" t="s">
@@ -15074,7 +15078,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="232" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B232" t="s">
         <v>112</v>
       </c>
@@ -15093,7 +15097,7 @@
       <c r="H232" t="s">
         <v>205</v>
       </c>
-      <c r="K232">
+      <c r="K232" s="4">
         <v>360</v>
       </c>
       <c r="L232" s="3" t="s">
@@ -15142,7 +15146,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="233" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B233" t="s">
         <v>105</v>
       </c>
@@ -15161,7 +15165,7 @@
       <c r="H233" t="s">
         <v>206</v>
       </c>
-      <c r="K233">
+      <c r="K233" s="4">
         <v>360</v>
       </c>
       <c r="L233" s="3" t="s">
@@ -15204,7 +15208,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="234" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B234" t="s">
         <v>105</v>
       </c>
@@ -15223,7 +15227,7 @@
       <c r="H234" t="s">
         <v>206</v>
       </c>
-      <c r="K234">
+      <c r="K234" s="4">
         <v>360</v>
       </c>
       <c r="L234" s="3" t="s">
@@ -15263,7 +15267,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="235" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B235" t="s">
         <v>105</v>
       </c>
@@ -15282,7 +15286,7 @@
       <c r="H235" t="s">
         <v>206</v>
       </c>
-      <c r="K235">
+      <c r="K235" s="4">
         <v>360</v>
       </c>
       <c r="L235" s="3" t="s">
@@ -15334,7 +15338,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="236" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B236" t="s">
         <v>105</v>
       </c>
@@ -15353,7 +15357,7 @@
       <c r="H236" t="s">
         <v>206</v>
       </c>
-      <c r="K236">
+      <c r="K236" s="4">
         <v>360</v>
       </c>
       <c r="L236" s="3" t="s">
@@ -15405,7 +15409,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="237" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B237" t="s">
         <v>105</v>
       </c>
@@ -15424,7 +15428,7 @@
       <c r="H237" t="s">
         <v>206</v>
       </c>
-      <c r="K237">
+      <c r="K237" s="4">
         <v>360</v>
       </c>
       <c r="L237" s="3" t="s">
@@ -15458,7 +15462,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="238" spans="2:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B238" t="s">
         <v>105</v>
       </c>
@@ -15477,7 +15481,7 @@
       <c r="H238" t="s">
         <v>206</v>
       </c>
-      <c r="K238">
+      <c r="K238" s="4">
         <v>360</v>
       </c>
       <c r="L238" s="3" t="s">
